--- a/ANGLE/14.xlsx
+++ b/ANGLE/14.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>电话号码</t>
   </si>
@@ -24,2677 +24,574 @@
     <t>number</t>
   </si>
   <si>
-    <t>13923885176</t>
+    <t>15995484714</t>
   </si>
   <si>
-    <t>13534055308</t>
+    <t>13913562877</t>
   </si>
   <si>
-    <t>13691989949</t>
+    <t>15962180123</t>
   </si>
   <si>
-    <t>13510088105</t>
+    <t>13771913349</t>
   </si>
   <si>
-    <t>13923706610</t>
+    <t>18115678915</t>
   </si>
   <si>
-    <t>13500066808</t>
+    <t>13915556070</t>
   </si>
   <si>
-    <t>13823287637</t>
+    <t>15962189793</t>
   </si>
   <si>
-    <t>13502830370</t>
+    <t>13641700550</t>
   </si>
   <si>
-    <t>13530172848</t>
+    <t>18068031806</t>
   </si>
   <si>
-    <t>15919495166</t>
+    <t>13951116636</t>
   </si>
   <si>
-    <t>13688806384</t>
+    <t>13915523777</t>
   </si>
   <si>
-    <t>13600405793</t>
+    <t>13584876834</t>
   </si>
   <si>
-    <t>13530038301</t>
+    <t>13584844675</t>
   </si>
   <si>
-    <t>13798254311</t>
+    <t>13862155693</t>
   </si>
   <si>
-    <t>13714380094</t>
+    <t>13913119611</t>
   </si>
   <si>
-    <t>13632603236</t>
+    <t>13806205231</t>
   </si>
   <si>
-    <t>13662591496</t>
+    <t>13616279946</t>
   </si>
   <si>
-    <t>13714830285</t>
+    <t>15850018202</t>
   </si>
   <si>
-    <t>13430541810</t>
+    <t>13813549089</t>
   </si>
   <si>
-    <t>13058012937</t>
+    <t>18151101001</t>
   </si>
   <si>
-    <t>13410937406</t>
+    <t>13862096542</t>
   </si>
   <si>
-    <t>13530197788</t>
+    <t>13812696405</t>
   </si>
   <si>
-    <t>15889418714</t>
+    <t>13771941822</t>
   </si>
   <si>
-    <t>13670217666</t>
+    <t>13915400150</t>
   </si>
   <si>
-    <t>13717066903</t>
+    <t>13906206974</t>
   </si>
   <si>
-    <t>13725590908</t>
+    <t>13585722175</t>
   </si>
   <si>
-    <t>13028843272</t>
+    <t>13814807911</t>
   </si>
   <si>
-    <t>13590410861</t>
+    <t>13966457555</t>
   </si>
   <si>
-    <t>13164712295</t>
+    <t>13918611936</t>
   </si>
   <si>
-    <t>13714696611</t>
+    <t>13564490603</t>
   </si>
   <si>
-    <t>13410446595</t>
+    <t>13405209256</t>
   </si>
   <si>
-    <t>13530357831</t>
+    <t>13913114377</t>
   </si>
   <si>
-    <t>13430578895</t>
+    <t>13306206122</t>
   </si>
   <si>
-    <t>13714770273</t>
+    <t>13812681917</t>
   </si>
   <si>
-    <t>13713739273</t>
+    <t>18662332262</t>
   </si>
   <si>
-    <t>13410597254</t>
+    <t>13328031050</t>
   </si>
   <si>
-    <t>13714311609</t>
+    <t>13771985664</t>
   </si>
   <si>
-    <t>13600181926</t>
+    <t>13915533301</t>
   </si>
   <si>
-    <t>13641471897</t>
+    <t>13806208308</t>
   </si>
   <si>
-    <t>13662695898</t>
+    <t>13912613808</t>
   </si>
   <si>
-    <t>13691912395</t>
+    <t>13771805289</t>
   </si>
   <si>
-    <t>13802574274</t>
+    <t>18260200435</t>
   </si>
   <si>
-    <t>13148850962</t>
+    <t>13771941059</t>
   </si>
   <si>
-    <t>13510929935</t>
+    <t>13962157802</t>
   </si>
   <si>
-    <t>13510897041</t>
+    <t>13706136158</t>
   </si>
   <si>
-    <t>13828897141</t>
+    <t>13584885545</t>
   </si>
   <si>
-    <t>13691989606</t>
+    <t>13656233898</t>
   </si>
   <si>
-    <t>13670265006</t>
+    <t>13812690623</t>
   </si>
   <si>
-    <t>13641412533</t>
+    <t>13584875115</t>
   </si>
   <si>
-    <t>13530130510</t>
+    <t>13913102162</t>
   </si>
   <si>
-    <t>13613051526</t>
+    <t>13815257706</t>
   </si>
   <si>
-    <t>15986663085</t>
+    <t>13092639391</t>
   </si>
   <si>
-    <t>13534275092</t>
+    <t>13771804875</t>
   </si>
   <si>
-    <t>13902448830</t>
+    <t>13771801780</t>
   </si>
   <si>
-    <t>13928472998</t>
+    <t>13812729679</t>
   </si>
   <si>
-    <t>13510687089</t>
+    <t>13771767561</t>
   </si>
   <si>
-    <t>15986662975</t>
+    <t>13732647626</t>
   </si>
   <si>
-    <t>13632561656</t>
+    <t>13812603920</t>
   </si>
   <si>
-    <t>13530126388</t>
+    <t>18662155502</t>
   </si>
   <si>
-    <t>13148862369</t>
+    <t>13914005863</t>
   </si>
   <si>
-    <t>13423864866</t>
+    <t>18961311315</t>
   </si>
   <si>
-    <t>13699890483</t>
+    <t>13812695537</t>
   </si>
   <si>
-    <t>13636241386</t>
+    <t>13814858896</t>
   </si>
   <si>
-    <t>13537735533</t>
+    <t>18651101850</t>
   </si>
   <si>
-    <t>13692216904</t>
+    <t>18994436036</t>
   </si>
   <si>
-    <t>13691954778</t>
+    <t>18652911028</t>
   </si>
   <si>
-    <t>13510155628</t>
+    <t>18013595918</t>
   </si>
   <si>
-    <t>13802243725</t>
+    <t>18913647190</t>
   </si>
   <si>
-    <t>13602650470</t>
+    <t>18036098931</t>
   </si>
   <si>
-    <t>13530523655</t>
+    <t>13812679836</t>
   </si>
   <si>
-    <t>13699750510</t>
+    <t>13913521590</t>
   </si>
   <si>
-    <t>13652439242</t>
+    <t>18934587015</t>
   </si>
   <si>
-    <t>13651476210</t>
+    <t>13004509111</t>
   </si>
   <si>
-    <t>13692108013</t>
+    <t>18912613971</t>
   </si>
   <si>
-    <t>13823386160</t>
+    <t>13812648280</t>
   </si>
   <si>
-    <t>13802275220</t>
+    <t>13862125045</t>
   </si>
   <si>
-    <t>13510393816</t>
+    <t>13771845565</t>
   </si>
   <si>
-    <t>13902950100</t>
+    <t>13912625307</t>
   </si>
   <si>
-    <t>13332918108</t>
+    <t>13625278903</t>
   </si>
   <si>
-    <t>13798476160</t>
+    <t>13771765668</t>
   </si>
   <si>
-    <t>15818590184</t>
+    <t>13328010368</t>
   </si>
   <si>
-    <t>13530357805</t>
+    <t>18862102125</t>
   </si>
   <si>
-    <t>13249817766</t>
+    <t>13862175857</t>
   </si>
   <si>
-    <t>13510198167</t>
+    <t>13775690661</t>
   </si>
   <si>
-    <t>13798380908</t>
+    <t>18662596517</t>
   </si>
   <si>
-    <t>13902458999</t>
+    <t>18006214280</t>
   </si>
   <si>
-    <t>13544062105</t>
+    <t>13912667777</t>
   </si>
   <si>
-    <t>13421821783</t>
+    <t>13915513320</t>
   </si>
   <si>
-    <t>13602550729</t>
+    <t>13952403329</t>
   </si>
   <si>
-    <t>13600180933</t>
+    <t>15995802775</t>
   </si>
   <si>
-    <t>13922867870</t>
+    <t>18662596565</t>
   </si>
   <si>
-    <t>13428773201</t>
+    <t>13913603988</t>
   </si>
   <si>
-    <t>15820485446</t>
+    <t>13862070080</t>
   </si>
   <si>
-    <t>13500054595</t>
+    <t>13915579217</t>
   </si>
   <si>
-    <t>13714422864</t>
+    <t>13951106569</t>
   </si>
   <si>
-    <t>15013713845</t>
+    <t>13862077969</t>
   </si>
   <si>
-    <t>13688809583</t>
+    <t>13915402108</t>
   </si>
   <si>
-    <t>13530012265</t>
+    <t>15601560811</t>
   </si>
   <si>
-    <t>13534079713</t>
+    <t>13701893778</t>
   </si>
   <si>
-    <t>13823560880</t>
+    <t>13270168230</t>
   </si>
   <si>
-    <t>13684924096</t>
+    <t>13004506620</t>
   </si>
   <si>
-    <t>13714194675</t>
+    <t>18014006862</t>
   </si>
   <si>
-    <t>13902987975</t>
+    <t>13814882382</t>
   </si>
   <si>
-    <t>13631532858</t>
+    <t>13013898666</t>
   </si>
   <si>
-    <t>13682469866</t>
+    <t>18913161066</t>
   </si>
   <si>
-    <t>13715062945</t>
+    <t>13962102920</t>
   </si>
   <si>
-    <t>13554920516</t>
+    <t>13906840285</t>
   </si>
   <si>
-    <t>13691922691</t>
+    <t>15151513479</t>
   </si>
   <si>
-    <t>15889427709</t>
+    <t>13915551654</t>
   </si>
   <si>
-    <t>13823296913</t>
+    <t>13862273631</t>
   </si>
   <si>
-    <t>13798385891</t>
+    <t>13812688042</t>
   </si>
   <si>
-    <t>13603020102</t>
+    <t>13616267091</t>
   </si>
   <si>
-    <t>13724398819</t>
+    <t>13915436654</t>
   </si>
   <si>
-    <t>13714349708</t>
+    <t>13506125532</t>
   </si>
   <si>
-    <t>13808803572</t>
+    <t>15050453058</t>
   </si>
   <si>
-    <t>13802293373</t>
+    <t>18851383288</t>
   </si>
   <si>
-    <t>13128008200</t>
+    <t>13906134233</t>
   </si>
   <si>
-    <t>13682370737</t>
+    <t>15051591838</t>
   </si>
   <si>
-    <t>13714602909</t>
+    <t>13739172164</t>
   </si>
   <si>
-    <t>15976860200</t>
+    <t>15370336099</t>
   </si>
   <si>
-    <t>13751127087</t>
+    <t>13876136677</t>
   </si>
   <si>
-    <t>13603093351</t>
+    <t>13584825448</t>
   </si>
   <si>
-    <t>13603041606</t>
+    <t>18662200689</t>
   </si>
   <si>
-    <t>13692295280</t>
+    <t>18662576349</t>
   </si>
   <si>
-    <t>13760217993</t>
+    <t>13771797370</t>
   </si>
   <si>
-    <t>13682433904</t>
+    <t>18616659511</t>
   </si>
   <si>
-    <t>13530458267</t>
+    <t>15995708866</t>
   </si>
   <si>
-    <t>13713835093</t>
+    <t>13812605787</t>
   </si>
   <si>
-    <t>13554923716</t>
+    <t>13619919123</t>
   </si>
   <si>
-    <t>13682352345</t>
+    <t>13601542618</t>
   </si>
   <si>
-    <t>13823315660</t>
+    <t>13584852227</t>
   </si>
   <si>
-    <t>13502861396</t>
+    <t>13701415906</t>
   </si>
   <si>
-    <t>13923704537</t>
+    <t>13625271702</t>
   </si>
   <si>
-    <t>13828883818</t>
+    <t>15995499758</t>
   </si>
   <si>
-    <t>13713900176</t>
+    <t>13701541852</t>
   </si>
   <si>
-    <t>13631535768</t>
+    <t>13771805706</t>
   </si>
   <si>
-    <t>13603048811</t>
+    <t>13937187809</t>
   </si>
   <si>
-    <t>13760445089</t>
+    <t>13918932956</t>
   </si>
   <si>
-    <t>13809882167</t>
+    <t>13862283237</t>
   </si>
   <si>
-    <t>13510331860</t>
+    <t>13506218955</t>
   </si>
   <si>
-    <t>13502846275</t>
+    <t>15962102655</t>
   </si>
   <si>
-    <t>13510331685</t>
+    <t>13771708882</t>
   </si>
   <si>
-    <t>13699809099</t>
+    <t>13913526475</t>
   </si>
   <si>
-    <t>13923741588</t>
+    <t>13905545096</t>
   </si>
   <si>
-    <t>13902905564</t>
+    <t>18606151177</t>
   </si>
   <si>
-    <t>13501581526</t>
+    <t>13914004398</t>
   </si>
   <si>
-    <t>13510331569</t>
+    <t>13901547379</t>
   </si>
   <si>
-    <t>13923863180</t>
+    <t>13913158439</t>
   </si>
   <si>
-    <t>13828702230</t>
+    <t>13506200620</t>
   </si>
   <si>
-    <t>13510331316</t>
+    <t>15370011658</t>
   </si>
   <si>
-    <t>13603008665</t>
+    <t>18058869222</t>
   </si>
   <si>
-    <t>13530424387</t>
+    <t>13771729465</t>
   </si>
   <si>
-    <t>13510331536</t>
+    <t>13915516845</t>
   </si>
   <si>
-    <t>13823631166</t>
+    <t>13918795160</t>
   </si>
   <si>
-    <t>13923708417</t>
+    <t>13771833025</t>
   </si>
   <si>
-    <t>13760109796</t>
+    <t>18912799892</t>
   </si>
   <si>
-    <t>13802583287</t>
+    <t>15962202250</t>
   </si>
   <si>
-    <t>13902980204</t>
+    <t>18588816366</t>
   </si>
   <si>
-    <t>13714681395</t>
+    <t>15851482183</t>
   </si>
   <si>
-    <t>13923885115</t>
+    <t>18912618680</t>
   </si>
   <si>
-    <t>13510331610</t>
+    <t>13771860854</t>
   </si>
   <si>
-    <t>13828700215</t>
+    <t>18551132106</t>
   </si>
   <si>
-    <t>13760215205</t>
+    <t>13607318652</t>
   </si>
   <si>
-    <t>13410067547</t>
+    <t>13814869549</t>
   </si>
   <si>
-    <t>13600158095</t>
+    <t>13606219925</t>
   </si>
   <si>
-    <t>13510331648</t>
+    <t>13861322654</t>
   </si>
   <si>
-    <t>13600445537</t>
+    <t>13401420790</t>
   </si>
   <si>
-    <t>13682308383</t>
+    <t>15850282778</t>
   </si>
   <si>
-    <t>13510331655</t>
+    <t>13451506358</t>
   </si>
   <si>
-    <t>13828702321</t>
+    <t>13921972725</t>
   </si>
   <si>
-    <t>13602527388</t>
+    <t>13801469635</t>
   </si>
   <si>
-    <t>13510331529</t>
+    <t>13771835012</t>
   </si>
   <si>
-    <t>13510331499</t>
+    <t>13913171396</t>
   </si>
   <si>
-    <t>13923838322</t>
+    <t>13338009093</t>
   </si>
   <si>
-    <t>13423980982</t>
+    <t>13862051331</t>
   </si>
   <si>
-    <t>13510331809</t>
+    <t>13776111293</t>
   </si>
   <si>
-    <t>13923488282</t>
+    <t>13205177150</t>
   </si>
   <si>
-    <t>13923417000</t>
+    <t>13812681230</t>
   </si>
   <si>
-    <t>13510331691</t>
+    <t>13771866535</t>
   </si>
   <si>
-    <t>13510331668</t>
+    <t>15995991699</t>
   </si>
   <si>
-    <t>13510331308</t>
+    <t>13013887719</t>
   </si>
   <si>
-    <t>13510331528</t>
+    <t>13361875563</t>
   </si>
   <si>
-    <t>13530616035</t>
+    <t>13506200867</t>
   </si>
   <si>
-    <t>13823568920</t>
+    <t>18915422677</t>
   </si>
   <si>
-    <t>13410270905</t>
+    <t>13912634789</t>
   </si>
   <si>
-    <t>13006668223</t>
+    <t>13862415455</t>
   </si>
   <si>
-    <t>13600183666</t>
+    <t>13814838274</t>
   </si>
   <si>
-    <t>13713865006</t>
+    <t>13606138233</t>
   </si>
   <si>
-    <t>13923481218</t>
+    <t>13771821109</t>
   </si>
   <si>
-    <t>13828811520</t>
-  </si>
-  <si>
-    <t>15882303360</t>
-  </si>
-  <si>
-    <t>13802245530</t>
-  </si>
-  <si>
-    <t>13510331758</t>
-  </si>
-  <si>
-    <t>13602687578</t>
-  </si>
-  <si>
-    <t>13600421556</t>
-  </si>
-  <si>
-    <t>13510331533</t>
-  </si>
-  <si>
-    <t>13530715500</t>
-  </si>
-  <si>
-    <t>13501586292</t>
-  </si>
-  <si>
-    <t>15012805984</t>
-  </si>
-  <si>
-    <t>13632931023</t>
-  </si>
-  <si>
-    <t>13691604803</t>
-  </si>
-  <si>
-    <t>13686523329</t>
-  </si>
-  <si>
-    <t>13923844380</t>
-  </si>
-  <si>
-    <t>13530610470</t>
-  </si>
-  <si>
-    <t>13510331855</t>
-  </si>
-  <si>
-    <t>13713365566</t>
-  </si>
-  <si>
-    <t>13510331362</t>
-  </si>
-  <si>
-    <t>15013872926</t>
-  </si>
-  <si>
-    <t>13828702290</t>
-  </si>
-  <si>
-    <t>13688808525</t>
-  </si>
-  <si>
-    <t>13923708976</t>
-  </si>
-  <si>
-    <t>13510331756</t>
-  </si>
-  <si>
-    <t>13510331438</t>
-  </si>
-  <si>
-    <t>13510331523</t>
-  </si>
-  <si>
-    <t>13538044782</t>
-  </si>
-  <si>
-    <t>13510331880</t>
-  </si>
-  <si>
-    <t>13923465609</t>
-  </si>
-  <si>
-    <t>13510331687</t>
-  </si>
-  <si>
-    <t>13922841798</t>
-  </si>
-  <si>
-    <t>13510331649</t>
-  </si>
-  <si>
-    <t>13510331527</t>
-  </si>
-  <si>
-    <t>13510331636</t>
-  </si>
-  <si>
-    <t>13902961240</t>
-  </si>
-  <si>
-    <t>13923857108</t>
-  </si>
-  <si>
-    <t>13925251226</t>
-  </si>
-  <si>
-    <t>13902318594</t>
-  </si>
-  <si>
-    <t>13510331336</t>
-  </si>
-  <si>
-    <t>13923836958</t>
-  </si>
-  <si>
-    <t>13922836424</t>
-  </si>
-  <si>
-    <t>13510331761</t>
-  </si>
-  <si>
-    <t>13689516787</t>
-  </si>
-  <si>
-    <t>13823566848</t>
-  </si>
-  <si>
-    <t>13602581018</t>
-  </si>
-  <si>
-    <t>13670296843</t>
-  </si>
-  <si>
-    <t>13310838992</t>
-  </si>
-  <si>
-    <t>13537797034</t>
-  </si>
-  <si>
-    <t>13530741276</t>
-  </si>
-  <si>
-    <t>13620920231</t>
-  </si>
-  <si>
-    <t>13713627435</t>
-  </si>
-  <si>
-    <t>15889375152</t>
-  </si>
-  <si>
-    <t>13202275397</t>
-  </si>
-  <si>
-    <t>13714606727</t>
-  </si>
-  <si>
-    <t>13620223537</t>
-  </si>
-  <si>
-    <t>13025423023</t>
-  </si>
-  <si>
-    <t>13823233243</t>
-  </si>
-  <si>
-    <t>13632595910</t>
-  </si>
-  <si>
-    <t>13430674836</t>
-  </si>
-  <si>
-    <t>13714353309</t>
-  </si>
-  <si>
-    <t>13691771410</t>
-  </si>
-  <si>
-    <t>13613030416</t>
-  </si>
-  <si>
-    <t>13714600022</t>
-  </si>
-  <si>
-    <t>13410585357</t>
-  </si>
-  <si>
-    <t>13802280855</t>
-  </si>
-  <si>
-    <t>13823657858</t>
-  </si>
-  <si>
-    <t>13823571988</t>
-  </si>
-  <si>
-    <t>13410124833</t>
-  </si>
-  <si>
-    <t>13903021521</t>
-  </si>
-  <si>
-    <t>13602683536</t>
-  </si>
-  <si>
-    <t>13510942682</t>
-  </si>
-  <si>
-    <t>13480878589</t>
-  </si>
-  <si>
-    <t>13430832540</t>
-  </si>
-  <si>
-    <t>13480998313</t>
-  </si>
-  <si>
-    <t>13510994481</t>
-  </si>
-  <si>
-    <t>13855807370</t>
-  </si>
-  <si>
-    <t>13510989108</t>
-  </si>
-  <si>
-    <t>13924605543</t>
-  </si>
-  <si>
-    <t>13717132448</t>
-  </si>
-  <si>
-    <t>13500054635</t>
-  </si>
-  <si>
-    <t>13500055936</t>
-  </si>
-  <si>
-    <t>13502867408</t>
-  </si>
-  <si>
-    <t>13530636202</t>
-  </si>
-  <si>
-    <t>13058166823</t>
-  </si>
-  <si>
-    <t>13714617611</t>
-  </si>
-  <si>
-    <t>15813857189</t>
-  </si>
-  <si>
-    <t>13670280620</t>
-  </si>
-  <si>
-    <t>13715172414</t>
-  </si>
-  <si>
-    <t>13534091491</t>
-  </si>
-  <si>
-    <t>13612939406</t>
-  </si>
-  <si>
-    <t>13528442622</t>
-  </si>
-  <si>
-    <t>13714291682</t>
-  </si>
-  <si>
-    <t>13715210513</t>
-  </si>
-  <si>
-    <t>13528762480</t>
-  </si>
-  <si>
-    <t>13530273171</t>
-  </si>
-  <si>
-    <t>13823328800</t>
-  </si>
-  <si>
-    <t>13128708861</t>
-  </si>
-  <si>
-    <t>13826503287</t>
-  </si>
-  <si>
-    <t>13798309915</t>
-  </si>
-  <si>
-    <t>13728924273</t>
-  </si>
-  <si>
-    <t>13424449247</t>
-  </si>
-  <si>
-    <t>13714767497</t>
-  </si>
-  <si>
-    <t>13510591420</t>
-  </si>
-  <si>
-    <t>13751056980</t>
-  </si>
-  <si>
-    <t>13760435112</t>
-  </si>
-  <si>
-    <t>13590347751</t>
-  </si>
-  <si>
-    <t>13249806788</t>
-  </si>
-  <si>
-    <t>18922851790</t>
-  </si>
-  <si>
-    <t>13826503283</t>
-  </si>
-  <si>
-    <t>13715286156</t>
-  </si>
-  <si>
-    <t>13808851060</t>
-  </si>
-  <si>
-    <t>13265860145</t>
-  </si>
-  <si>
-    <t>13006606138</t>
-  </si>
-  <si>
-    <t>13823713859</t>
-  </si>
-  <si>
-    <t>13410234703</t>
-  </si>
-  <si>
-    <t>13510322158</t>
-  </si>
-  <si>
-    <t>13682471889</t>
-  </si>
-  <si>
-    <t>13691688372</t>
-  </si>
-  <si>
-    <t>13560775167</t>
-  </si>
-  <si>
-    <t>13692125773</t>
-  </si>
-  <si>
-    <t>15118211588</t>
-  </si>
-  <si>
-    <t>13670265049</t>
-  </si>
-  <si>
-    <t>13043470661</t>
-  </si>
-  <si>
-    <t>13602501234</t>
-  </si>
-  <si>
-    <t>13728746278</t>
-  </si>
-  <si>
-    <t>13538165283</t>
-  </si>
-  <si>
-    <t>15079619286</t>
-  </si>
-  <si>
-    <t>13823771431</t>
-  </si>
-  <si>
-    <t>13556871659</t>
-  </si>
-  <si>
-    <t>13798462517</t>
-  </si>
-  <si>
-    <t>13662589977</t>
-  </si>
-  <si>
-    <t>13509656310</t>
-  </si>
-  <si>
-    <t>13691756281</t>
-  </si>
-  <si>
-    <t>13670171078</t>
-  </si>
-  <si>
-    <t>13714086509</t>
-  </si>
-  <si>
-    <t>13802267858</t>
-  </si>
-  <si>
-    <t>13715327023</t>
-  </si>
-  <si>
-    <t>13902927397</t>
-  </si>
-  <si>
-    <t>13138887896</t>
-  </si>
-  <si>
-    <t>13691694912</t>
-  </si>
-  <si>
-    <t>13902434310</t>
-  </si>
-  <si>
-    <t>13510623699</t>
-  </si>
-  <si>
-    <t>13602583283</t>
-  </si>
-  <si>
-    <t>13728999456</t>
-  </si>
-  <si>
-    <t>13686406035</t>
-  </si>
-  <si>
-    <t>13682382717</t>
-  </si>
-  <si>
-    <t>13925229060</t>
-  </si>
-  <si>
-    <t>13530142651</t>
-  </si>
-  <si>
-    <t>13823302855</t>
-  </si>
-  <si>
-    <t>13682627633</t>
-  </si>
-  <si>
-    <t>13530294332</t>
-  </si>
-  <si>
-    <t>13538267190</t>
-  </si>
-  <si>
-    <t>13528469757</t>
-  </si>
-  <si>
-    <t>13922803297</t>
-  </si>
-  <si>
-    <t>13902906849</t>
-  </si>
-  <si>
-    <t>13332952255</t>
-  </si>
-  <si>
-    <t>13510655220</t>
-  </si>
-  <si>
-    <t>13530773132</t>
-  </si>
-  <si>
-    <t>13632646899</t>
-  </si>
-  <si>
-    <t>13717116030</t>
-  </si>
-  <si>
-    <t>13602575883</t>
-  </si>
-  <si>
-    <t>13715224499</t>
-  </si>
-  <si>
-    <t>13602652362</t>
-  </si>
-  <si>
-    <t>13827434599</t>
-  </si>
-  <si>
-    <t>13902986427</t>
-  </si>
-  <si>
-    <t>18925261638</t>
-  </si>
-  <si>
-    <t>13602521828</t>
-  </si>
-  <si>
-    <t>13902986384</t>
-  </si>
-  <si>
-    <t>13824325290</t>
-  </si>
-  <si>
-    <t>13501577716</t>
-  </si>
-  <si>
-    <t>13714059838</t>
-  </si>
-  <si>
-    <t>15323840981</t>
-  </si>
-  <si>
-    <t>13537515757</t>
-  </si>
-  <si>
-    <t>13538156965</t>
-  </si>
-  <si>
-    <t>13530249479</t>
-  </si>
-  <si>
-    <t>15218737466</t>
-  </si>
-  <si>
-    <t>13713508309</t>
-  </si>
-  <si>
-    <t>13620926488</t>
-  </si>
-  <si>
-    <t>13686859786</t>
-  </si>
-  <si>
-    <t>13713756747</t>
-  </si>
-  <si>
-    <t>13528490034</t>
-  </si>
-  <si>
-    <t>13714946175</t>
-  </si>
-  <si>
-    <t>13798357094</t>
-  </si>
-  <si>
-    <t>13760111651</t>
-  </si>
-  <si>
-    <t>13612852033</t>
-  </si>
-  <si>
-    <t>13828703516</t>
-  </si>
-  <si>
-    <t>13510838878</t>
-  </si>
-  <si>
-    <t>13691912368</t>
-  </si>
-  <si>
-    <t>13058071170</t>
-  </si>
-  <si>
-    <t>13530079853</t>
-  </si>
-  <si>
-    <t>15170839193</t>
-  </si>
-  <si>
-    <t>13423966892</t>
-  </si>
-  <si>
-    <t>13798416714</t>
-  </si>
-  <si>
-    <t>13640911791</t>
-  </si>
-  <si>
-    <t>13923796579</t>
-  </si>
-  <si>
-    <t>15920091508</t>
-  </si>
-  <si>
-    <t>13530698303</t>
-  </si>
-  <si>
-    <t>13823220005</t>
-  </si>
-  <si>
-    <t>13430463272</t>
-  </si>
-  <si>
-    <t>15012961006</t>
-  </si>
-  <si>
-    <t>13534070457</t>
-  </si>
-  <si>
-    <t>13714163718</t>
-  </si>
-  <si>
-    <t>13928442455</t>
-  </si>
-  <si>
-    <t>15016375704</t>
-  </si>
-  <si>
-    <t>13925278974</t>
-  </si>
-  <si>
-    <t>13922825022</t>
-  </si>
-  <si>
-    <t>13501553900</t>
-  </si>
-  <si>
-    <t>13923405641</t>
-  </si>
-  <si>
-    <t>13923788004</t>
-  </si>
-  <si>
-    <t>13823376768</t>
-  </si>
-  <si>
-    <t>13418536999</t>
-  </si>
-  <si>
-    <t>13632820520</t>
-  </si>
-  <si>
-    <t>13026669996</t>
-  </si>
-  <si>
-    <t>13554983229</t>
-  </si>
-  <si>
-    <t>13622307758</t>
-  </si>
-  <si>
-    <t>13923862534</t>
-  </si>
-  <si>
-    <t>13686490525</t>
-  </si>
-  <si>
-    <t>13316583060</t>
-  </si>
-  <si>
-    <t>13923460877</t>
-  </si>
-  <si>
-    <t>13714729763</t>
-  </si>
-  <si>
-    <t>13809886160</t>
-  </si>
-  <si>
-    <t>13823211996</t>
-  </si>
-  <si>
-    <t>13928420439</t>
-  </si>
-  <si>
-    <t>13823558230</t>
-  </si>
-  <si>
-    <t>13640931596</t>
-  </si>
-  <si>
-    <t>13501591975</t>
-  </si>
-  <si>
-    <t>13717130542</t>
-  </si>
-  <si>
-    <t>13927819962</t>
-  </si>
-  <si>
-    <t>13714088765</t>
-  </si>
-  <si>
-    <t>13691761011</t>
-  </si>
-  <si>
-    <t>13825200844</t>
-  </si>
-  <si>
-    <t>13632799610</t>
-  </si>
-  <si>
-    <t>13691646984</t>
-  </si>
-  <si>
-    <t>13751074336</t>
-  </si>
-  <si>
-    <t>13714531001</t>
-  </si>
-  <si>
-    <t>13537683202</t>
-  </si>
-  <si>
-    <t>13760236928</t>
-  </si>
-  <si>
-    <t>13509628806</t>
-  </si>
-  <si>
-    <t>13802224690</t>
-  </si>
-  <si>
-    <t>13760137601</t>
-  </si>
-  <si>
-    <t>13823651445</t>
-  </si>
-  <si>
-    <t>13480875852</t>
-  </si>
-  <si>
-    <t>13902909307</t>
-  </si>
-  <si>
-    <t>13699837317</t>
-  </si>
-  <si>
-    <t>13714594949</t>
-  </si>
-  <si>
-    <t>13049383017</t>
-  </si>
-  <si>
-    <t>13760104423</t>
-  </si>
-  <si>
-    <t>13713816988</t>
-  </si>
-  <si>
-    <t>13682311216</t>
-  </si>
-  <si>
-    <t>13510781898</t>
-  </si>
-  <si>
-    <t>13670193302</t>
-  </si>
-  <si>
-    <t>13682651315</t>
-  </si>
-  <si>
-    <t>13410490519</t>
-  </si>
-  <si>
-    <t>13590206407</t>
-  </si>
-  <si>
-    <t>13418810892</t>
-  </si>
-  <si>
-    <t>13662682523</t>
-  </si>
-  <si>
-    <t>13692171967</t>
-  </si>
-  <si>
-    <t>13926533790</t>
-  </si>
-  <si>
-    <t>13713581024</t>
-  </si>
-  <si>
-    <t>13528809608</t>
-  </si>
-  <si>
-    <t>13530488296</t>
-  </si>
-  <si>
-    <t>13534236451</t>
-  </si>
-  <si>
-    <t>13670156895</t>
-  </si>
-  <si>
-    <t>13923878376</t>
-  </si>
-  <si>
-    <t>13714568175</t>
-  </si>
-  <si>
-    <t>13691696149</t>
-  </si>
-  <si>
-    <t>13622359256</t>
-  </si>
-  <si>
-    <t>13682472912</t>
-  </si>
-  <si>
-    <t>13640995517</t>
-  </si>
-  <si>
-    <t>13923792942</t>
-  </si>
-  <si>
-    <t>13620911887</t>
-  </si>
-  <si>
-    <t>13902466934</t>
-  </si>
-  <si>
-    <t>13502830850</t>
-  </si>
-  <si>
-    <t>13642349638</t>
-  </si>
-  <si>
-    <t>13923883788</t>
-  </si>
-  <si>
-    <t>13502883602</t>
-  </si>
-  <si>
-    <t>13538135402</t>
-  </si>
-  <si>
-    <t>13823383667</t>
-  </si>
-  <si>
-    <t>13902456779</t>
-  </si>
-  <si>
-    <t>13509617474</t>
-  </si>
-  <si>
-    <t>15012928683</t>
-  </si>
-  <si>
-    <t>13923868393</t>
-  </si>
-  <si>
-    <t>13510370990</t>
-  </si>
-  <si>
-    <t>13632660616</t>
-  </si>
-  <si>
-    <t>13530982836</t>
-  </si>
-  <si>
-    <t>13902920807</t>
-  </si>
-  <si>
-    <t>13823213584</t>
-  </si>
-  <si>
-    <t>13510812309</t>
-  </si>
-  <si>
-    <t>13714314176</t>
-  </si>
-  <si>
-    <t>13728765420</t>
-  </si>
-  <si>
-    <t>13802263003</t>
-  </si>
-  <si>
-    <t>13928430913</t>
-  </si>
-  <si>
-    <t>18922852882</t>
-  </si>
-  <si>
-    <t>15816863936</t>
-  </si>
-  <si>
-    <t>13902963506</t>
-  </si>
-  <si>
-    <t>13428994057</t>
-  </si>
-  <si>
-    <t>15920694224</t>
-  </si>
-  <si>
-    <t>13922876204</t>
-  </si>
-  <si>
-    <t>13714000511</t>
-  </si>
-  <si>
-    <t>13823387051</t>
-  </si>
-  <si>
-    <t>13714878782</t>
-  </si>
-  <si>
-    <t>13428963297</t>
-  </si>
-  <si>
-    <t>13632522259</t>
-  </si>
-  <si>
-    <t>13480887403</t>
-  </si>
-  <si>
-    <t>13332988201</t>
-  </si>
-  <si>
-    <t>13714661230</t>
-  </si>
-  <si>
-    <t>13316836488</t>
-  </si>
-  <si>
-    <t>13310834599</t>
-  </si>
-  <si>
-    <t>15915437074</t>
-  </si>
-  <si>
-    <t>13428925768</t>
-  </si>
-  <si>
-    <t>13632927361</t>
-  </si>
-  <si>
-    <t>13168082673</t>
-  </si>
-  <si>
-    <t>13684970236</t>
-  </si>
-  <si>
-    <t>13725502560</t>
-  </si>
-  <si>
-    <t>13662667077</t>
-  </si>
-  <si>
-    <t>13684988179</t>
-  </si>
-  <si>
-    <t>13312933137</t>
-  </si>
-  <si>
-    <t>13028891304</t>
-  </si>
-  <si>
-    <t>13902912705</t>
-  </si>
-  <si>
-    <t>13823654160</t>
-  </si>
-  <si>
-    <t>13725584130</t>
-  </si>
-  <si>
-    <t>13502876411</t>
-  </si>
-  <si>
-    <t>13823610567</t>
-  </si>
-  <si>
-    <t>13310839650</t>
-  </si>
-  <si>
-    <t>13537516122</t>
-  </si>
-  <si>
-    <t>13640987599</t>
-  </si>
-  <si>
-    <t>13923779034</t>
-  </si>
-  <si>
-    <t>13922822266</t>
-  </si>
-  <si>
-    <t>15820489802</t>
-  </si>
-  <si>
-    <t>13823315543</t>
-  </si>
-  <si>
-    <t>13662604753</t>
-  </si>
-  <si>
-    <t>13590415886</t>
-  </si>
-  <si>
-    <t>13652352457</t>
-  </si>
-  <si>
-    <t>13802249955</t>
-  </si>
-  <si>
-    <t>13923860471</t>
-  </si>
-  <si>
-    <t>13509648019</t>
-  </si>
-  <si>
-    <t>13510697374</t>
-  </si>
-  <si>
-    <t>13927426419</t>
-  </si>
-  <si>
-    <t>15920004583</t>
-  </si>
-  <si>
-    <t>13751102098</t>
-  </si>
-  <si>
-    <t>15977659058</t>
-  </si>
-  <si>
-    <t>15919876221</t>
-  </si>
-  <si>
-    <t>13622372299</t>
-  </si>
-  <si>
-    <t>13670196303</t>
-  </si>
-  <si>
-    <t>13689566391</t>
-  </si>
-  <si>
-    <t>13725582348</t>
-  </si>
-  <si>
-    <t>13823102378</t>
-  </si>
-  <si>
-    <t>13590469738</t>
-  </si>
-  <si>
-    <t>13534182695</t>
-  </si>
-  <si>
-    <t>13602577768</t>
-  </si>
-  <si>
-    <t>13902917772</t>
-  </si>
-  <si>
-    <t>13714829743</t>
-  </si>
-  <si>
-    <t>13714757729</t>
-  </si>
-  <si>
-    <t>13509628394</t>
-  </si>
-  <si>
-    <t>13923415337</t>
-  </si>
-  <si>
-    <t>13823196515</t>
-  </si>
-  <si>
-    <t>13600159015</t>
-  </si>
-  <si>
-    <t>13428773891</t>
-  </si>
-  <si>
-    <t>13902922625</t>
-  </si>
-  <si>
-    <t>13538091621</t>
-  </si>
-  <si>
-    <t>13902961800</t>
-  </si>
-  <si>
-    <t>13502811738</t>
-  </si>
-  <si>
-    <t>13902940225</t>
-  </si>
-  <si>
-    <t>13602658178</t>
-  </si>
-  <si>
-    <t>13500063619</t>
-  </si>
-  <si>
-    <t>13537862695</t>
-  </si>
-  <si>
-    <t>13509645100</t>
-  </si>
-  <si>
-    <t>13713669545</t>
-  </si>
-  <si>
-    <t>13923451809</t>
-  </si>
-  <si>
-    <t>13602699558</t>
-  </si>
-  <si>
-    <t>13510634132</t>
-  </si>
-  <si>
-    <t>13602564488</t>
-  </si>
-  <si>
-    <t>13809868198</t>
-  </si>
-  <si>
-    <t>13902455031</t>
-  </si>
-  <si>
-    <t>13600188205</t>
-  </si>
-  <si>
-    <t>13802287405</t>
-  </si>
-  <si>
-    <t>13802709030</t>
-  </si>
-  <si>
-    <t>13088800110</t>
-  </si>
-  <si>
-    <t>13714822989</t>
-  </si>
-  <si>
-    <t>13603063137</t>
-  </si>
-  <si>
-    <t>13728765576</t>
-  </si>
-  <si>
-    <t>13802835593</t>
-  </si>
-  <si>
-    <t>13802227692</t>
-  </si>
-  <si>
-    <t>13714922565</t>
-  </si>
-  <si>
-    <t>13924633028</t>
-  </si>
-  <si>
-    <t>13714295798</t>
-  </si>
-  <si>
-    <t>13600152950</t>
-  </si>
-  <si>
-    <t>13802201810</t>
-  </si>
-  <si>
-    <t>13823329977</t>
-  </si>
-  <si>
-    <t>13823191540</t>
-  </si>
-  <si>
-    <t>13510484404</t>
-  </si>
-  <si>
-    <t>13602676145</t>
-  </si>
-  <si>
-    <t>13570893812</t>
-  </si>
-  <si>
-    <t>13828763568</t>
-  </si>
-  <si>
-    <t>13823145815</t>
-  </si>
-  <si>
-    <t>13809891901</t>
-  </si>
-  <si>
-    <t>13826539467</t>
-  </si>
-  <si>
-    <t>13077831499</t>
-  </si>
-  <si>
-    <t>15899869789</t>
-  </si>
-  <si>
-    <t>13802249736</t>
-  </si>
-  <si>
-    <t>13923808006</t>
-  </si>
-  <si>
-    <t>13602590903</t>
-  </si>
-  <si>
-    <t>13713707989</t>
-  </si>
-  <si>
-    <t>13714025025</t>
-  </si>
-  <si>
-    <t>13714765128</t>
-  </si>
-  <si>
-    <t>13809884790</t>
-  </si>
-  <si>
-    <t>13048817443</t>
-  </si>
-  <si>
-    <t>15914157871</t>
-  </si>
-  <si>
-    <t>13502832494</t>
-  </si>
-  <si>
-    <t>13823707899</t>
-  </si>
-  <si>
-    <t>13430586892</t>
-  </si>
-  <si>
-    <t>13689588863</t>
-  </si>
-  <si>
-    <t>13417372901</t>
-  </si>
-  <si>
-    <t>13670110018</t>
-  </si>
-  <si>
-    <t>13480874939</t>
-  </si>
-  <si>
-    <t>13612806396</t>
-  </si>
-  <si>
-    <t>13670242160</t>
-  </si>
-  <si>
-    <t>13510210319</t>
-  </si>
-  <si>
-    <t>15813826849</t>
-  </si>
-  <si>
-    <t>13418501242</t>
-  </si>
-  <si>
-    <t>13725521896</t>
-  </si>
-  <si>
-    <t>18928487451</t>
-  </si>
-  <si>
-    <t>13823263882</t>
-  </si>
-  <si>
-    <t>13600160526</t>
-  </si>
-  <si>
-    <t>13728874414</t>
-  </si>
-  <si>
-    <t>13352930986</t>
-  </si>
-  <si>
-    <t>13312925334</t>
-  </si>
-  <si>
-    <t>15919450787</t>
-  </si>
-  <si>
-    <t>13877378729</t>
-  </si>
-  <si>
-    <t>13925206680</t>
-  </si>
-  <si>
-    <t>13509615773</t>
-  </si>
-  <si>
-    <t>13692218760</t>
-  </si>
-  <si>
-    <t>13823171613</t>
-  </si>
-  <si>
-    <t>13509608134</t>
-  </si>
-  <si>
-    <t>13902970697</t>
-  </si>
-  <si>
-    <t>13510252861</t>
-  </si>
-  <si>
-    <t>13925206080</t>
-  </si>
-  <si>
-    <t>13823250201</t>
-  </si>
-  <si>
-    <t>13724346735</t>
-  </si>
-  <si>
-    <t>13682354396</t>
-  </si>
-  <si>
-    <t>13410272516</t>
-  </si>
-  <si>
-    <t>13600400142</t>
-  </si>
-  <si>
-    <t>13725528281</t>
-  </si>
-  <si>
-    <t>13717100130</t>
-  </si>
-  <si>
-    <t>13922867805</t>
-  </si>
-  <si>
-    <t>13502820095</t>
-  </si>
-  <si>
-    <t>13902934811</t>
-  </si>
-  <si>
-    <t>13554796625</t>
-  </si>
-  <si>
-    <t>13923816158</t>
-  </si>
-  <si>
-    <t>13714601479</t>
-  </si>
-  <si>
-    <t>13808838497</t>
-  </si>
-  <si>
-    <t>13682426082</t>
-  </si>
-  <si>
-    <t>13694973879</t>
-  </si>
-  <si>
-    <t>13802250139</t>
-  </si>
-  <si>
-    <t>13510088339</t>
-  </si>
-  <si>
-    <t>13926515707</t>
-  </si>
-  <si>
-    <t>13622305319</t>
-  </si>
-  <si>
-    <t>13509611283</t>
-  </si>
-  <si>
-    <t>13603013320</t>
-  </si>
-  <si>
-    <t>13148821032</t>
-  </si>
-  <si>
-    <t>13714569290</t>
-  </si>
-  <si>
-    <t>13603081017</t>
-  </si>
-  <si>
-    <t>13802216279</t>
-  </si>
-  <si>
-    <t>13922821218</t>
-  </si>
-  <si>
-    <t>13924609271</t>
-  </si>
-  <si>
-    <t>13602562267</t>
-  </si>
-  <si>
-    <t>13828826623</t>
-  </si>
-  <si>
-    <t>13902476016</t>
-  </si>
-  <si>
-    <t>13662555000</t>
-  </si>
-  <si>
-    <t>13430885006</t>
-  </si>
-  <si>
-    <t>13923862699</t>
-  </si>
-  <si>
-    <t>13632633470</t>
-  </si>
-  <si>
-    <t>13902919884</t>
-  </si>
-  <si>
-    <t>13928470100</t>
-  </si>
-  <si>
-    <t>13823726018</t>
-  </si>
-  <si>
-    <t>13622374780</t>
-  </si>
-  <si>
-    <t>13603020736</t>
-  </si>
-  <si>
-    <t>13600428264</t>
-  </si>
-  <si>
-    <t>13802213743</t>
-  </si>
-  <si>
-    <t>13682515729</t>
-  </si>
-  <si>
-    <t>13902906620</t>
-  </si>
-  <si>
-    <t>13602508317</t>
-  </si>
-  <si>
-    <t>13802284120</t>
-  </si>
-  <si>
-    <t>13902454823</t>
-  </si>
-  <si>
-    <t>13902968068</t>
-  </si>
-  <si>
-    <t>13501576975</t>
-  </si>
-  <si>
-    <t>18820265856</t>
-  </si>
-  <si>
-    <t>13502898046</t>
-  </si>
-  <si>
-    <t>13510101363</t>
-  </si>
-  <si>
-    <t>13509672641</t>
-  </si>
-  <si>
-    <t>13760215424</t>
-  </si>
-  <si>
-    <t>13802268994</t>
-  </si>
-  <si>
-    <t>13902919160</t>
-  </si>
-  <si>
-    <t>13602533140</t>
-  </si>
-  <si>
-    <t>15994749612</t>
-  </si>
-  <si>
-    <t>13501558495</t>
-  </si>
-  <si>
-    <t>13632933783</t>
-  </si>
-  <si>
-    <t>13802219028</t>
-  </si>
-  <si>
-    <t>13713809420</t>
-  </si>
-  <si>
-    <t>13828829896</t>
-  </si>
-  <si>
-    <t>13502880737</t>
-  </si>
-  <si>
-    <t>13537526728</t>
-  </si>
-  <si>
-    <t>13502820529</t>
-  </si>
-  <si>
-    <t>13825258119</t>
-  </si>
-  <si>
-    <t>13802287725</t>
-  </si>
-  <si>
-    <t>13600411212</t>
-  </si>
-  <si>
-    <t>13480835353</t>
-  </si>
-  <si>
-    <t>13537787427</t>
-  </si>
-  <si>
-    <t>13808859437</t>
-  </si>
-  <si>
-    <t>13802262453</t>
-  </si>
-  <si>
-    <t>13501571750</t>
-  </si>
-  <si>
-    <t>13802289361</t>
-  </si>
-  <si>
-    <t>13922894276</t>
-  </si>
-  <si>
-    <t>13602505408</t>
-  </si>
-  <si>
-    <t>13823202863</t>
-  </si>
-  <si>
-    <t>13923441150</t>
-  </si>
-  <si>
-    <t>13692242789</t>
-  </si>
-  <si>
-    <t>13923861679</t>
-  </si>
-  <si>
-    <t>13378438711</t>
-  </si>
-  <si>
-    <t>13923761846</t>
-  </si>
-  <si>
-    <t>13926557229</t>
-  </si>
-  <si>
-    <t>13825204660</t>
-  </si>
-  <si>
-    <t>13825216321</t>
-  </si>
-  <si>
-    <t>13902445948</t>
-  </si>
-  <si>
-    <t>13923716118</t>
-  </si>
-  <si>
-    <t>13809894926</t>
-  </si>
-  <si>
-    <t>13902313341</t>
-  </si>
-  <si>
-    <t>13603066888</t>
-  </si>
-  <si>
-    <t>13510033365</t>
-  </si>
-  <si>
-    <t>13539393371</t>
-  </si>
-  <si>
-    <t>13699770308</t>
-  </si>
-  <si>
-    <t>13927462283</t>
-  </si>
-  <si>
-    <t>13684936963</t>
-  </si>
-  <si>
-    <t>13802239967</t>
-  </si>
-  <si>
-    <t>13537896780</t>
-  </si>
-  <si>
-    <t>13902451197</t>
-  </si>
-  <si>
-    <t>13502822038</t>
-  </si>
-  <si>
-    <t>13600178136</t>
-  </si>
-  <si>
-    <t>13823532803</t>
-  </si>
-  <si>
-    <t>13713589301</t>
-  </si>
-  <si>
-    <t>13682474050</t>
-  </si>
-  <si>
-    <t>13510876022</t>
-  </si>
-  <si>
-    <t>13538045332</t>
-  </si>
-  <si>
-    <t>13728650545</t>
-  </si>
-  <si>
-    <t>15989779656</t>
-  </si>
-  <si>
-    <t>15019238292</t>
-  </si>
-  <si>
-    <t>13823393430</t>
-  </si>
-  <si>
-    <t>13714775045</t>
-  </si>
-  <si>
-    <t>13530053699</t>
-  </si>
-  <si>
-    <t>13728871356</t>
-  </si>
-  <si>
-    <t>13826553589</t>
-  </si>
-  <si>
-    <t>13554897701</t>
-  </si>
-  <si>
-    <t>15976871278</t>
-  </si>
-  <si>
-    <t>13728899646</t>
-  </si>
-  <si>
-    <t>13534096772</t>
-  </si>
-  <si>
-    <t>13713979666</t>
-  </si>
-  <si>
-    <t>13410566971</t>
-  </si>
-  <si>
-    <t>13613041890</t>
-  </si>
-  <si>
-    <t>13670297806</t>
-  </si>
-  <si>
-    <t>13823213668</t>
-  </si>
-  <si>
-    <t>13713709365</t>
-  </si>
-  <si>
-    <t>13502854530</t>
-  </si>
-  <si>
-    <t>13631588510</t>
-  </si>
-  <si>
-    <t>15829930037</t>
-  </si>
-  <si>
-    <t>13600161971</t>
-  </si>
-  <si>
-    <t>13828744148</t>
-  </si>
-  <si>
-    <t>13922833260</t>
-  </si>
-  <si>
-    <t>13316418382</t>
-  </si>
-  <si>
-    <t>13509680135</t>
-  </si>
-  <si>
-    <t>13902965140</t>
-  </si>
-  <si>
-    <t>13724398914</t>
-  </si>
-  <si>
-    <t>13828755155</t>
-  </si>
-  <si>
-    <t>13682601660</t>
-  </si>
-  <si>
-    <t>13538073274</t>
-  </si>
-  <si>
-    <t>13802264032</t>
-  </si>
-  <si>
-    <t>13641419389</t>
-  </si>
-  <si>
-    <t>13530011912</t>
-  </si>
-  <si>
-    <t>13502841359</t>
-  </si>
-  <si>
-    <t>13510833323</t>
-  </si>
-  <si>
-    <t>13828713397</t>
-  </si>
-  <si>
-    <t>13691849252</t>
-  </si>
-  <si>
-    <t>13076968981</t>
-  </si>
-  <si>
-    <t>13902434038</t>
-  </si>
-  <si>
-    <t>13430780008</t>
-  </si>
-  <si>
-    <t>13502816461</t>
-  </si>
-  <si>
-    <t>13924591260</t>
-  </si>
-  <si>
-    <t>13312922428</t>
-  </si>
-  <si>
-    <t>13823280307</t>
-  </si>
-  <si>
-    <t>13612898456</t>
-  </si>
-  <si>
-    <t>13902449098</t>
-  </si>
-  <si>
-    <t>13502818735</t>
-  </si>
-  <si>
-    <t>13714669608</t>
-  </si>
-  <si>
-    <t>13620995957</t>
-  </si>
-  <si>
-    <t>15989877053</t>
-  </si>
-  <si>
-    <t>13823168458</t>
-  </si>
-  <si>
-    <t>13920092342</t>
-  </si>
-  <si>
-    <t>13620971325</t>
-  </si>
-  <si>
-    <t>13537753405</t>
-  </si>
-  <si>
-    <t>13430472806</t>
-  </si>
-  <si>
-    <t>15986608102</t>
-  </si>
-  <si>
-    <t>13682406308</t>
-  </si>
-  <si>
-    <t>13670130838</t>
-  </si>
-  <si>
-    <t>13682328891</t>
-  </si>
-  <si>
-    <t>13902442494</t>
-  </si>
-  <si>
-    <t>15889787117</t>
-  </si>
-  <si>
-    <t>13652333875</t>
-  </si>
-  <si>
-    <t>13509660643</t>
-  </si>
-  <si>
-    <t>13902475100</t>
-  </si>
-  <si>
-    <t>13603038561</t>
-  </si>
-  <si>
-    <t>13902489139</t>
-  </si>
-  <si>
-    <t>13802223280</t>
-  </si>
-  <si>
-    <t>13530185928</t>
-  </si>
-  <si>
-    <t>13640960234</t>
-  </si>
-  <si>
-    <t>13640988133</t>
-  </si>
-  <si>
-    <t>13723400600</t>
-  </si>
-  <si>
-    <t>13714761339</t>
-  </si>
-  <si>
-    <t>18603004300</t>
-  </si>
-  <si>
-    <t>13501579639</t>
-  </si>
-  <si>
-    <t>18926559511</t>
-  </si>
-  <si>
-    <t>13798463450</t>
-  </si>
-  <si>
-    <t>13802292924</t>
-  </si>
-  <si>
-    <t>13430623668</t>
-  </si>
-  <si>
-    <t>13823181066</t>
-  </si>
-  <si>
-    <t>13410453218</t>
-  </si>
-  <si>
-    <t>13823633092</t>
-  </si>
-  <si>
-    <t>13808489552</t>
-  </si>
-  <si>
-    <t>13923858262</t>
-  </si>
-  <si>
-    <t>13802237286</t>
-  </si>
-  <si>
-    <t>13430782676</t>
-  </si>
-  <si>
-    <t>13428965228</t>
-  </si>
-  <si>
-    <t>13922865374</t>
-  </si>
-  <si>
-    <t>13510828008</t>
-  </si>
-  <si>
-    <t>13609616757</t>
-  </si>
-  <si>
-    <t>13612809864</t>
-  </si>
-  <si>
-    <t>13723453058</t>
-  </si>
-  <si>
-    <t>13713516254</t>
-  </si>
-  <si>
-    <t>13823764168</t>
-  </si>
-  <si>
-    <t>13713902855</t>
-  </si>
-  <si>
-    <t>13670250184</t>
-  </si>
-  <si>
-    <t>13802275221</t>
-  </si>
-  <si>
-    <t>13802703635</t>
-  </si>
-  <si>
-    <t>13922853352</t>
-  </si>
-  <si>
-    <t>13902463079</t>
-  </si>
-  <si>
-    <t>13691740545</t>
-  </si>
-  <si>
-    <t>13903071975</t>
-  </si>
-  <si>
-    <t>13530098312</t>
-  </si>
-  <si>
-    <t>13501563843</t>
-  </si>
-  <si>
-    <t>13923866429</t>
-  </si>
-  <si>
-    <t>13510322448</t>
-  </si>
-  <si>
-    <t>13530181515</t>
-  </si>
-  <si>
-    <t>13392151804</t>
-  </si>
-  <si>
-    <t>13538237798</t>
-  </si>
-  <si>
-    <t>13510117965</t>
-  </si>
-  <si>
-    <t>13823677828</t>
-  </si>
-  <si>
-    <t>13809887750</t>
-  </si>
-  <si>
-    <t>13873122415</t>
-  </si>
-  <si>
-    <t>13530137303</t>
-  </si>
-  <si>
-    <t>13823572484</t>
-  </si>
-  <si>
-    <t>13798461005</t>
-  </si>
-  <si>
-    <t>13923786535</t>
-  </si>
-  <si>
-    <t>13652345518</t>
-  </si>
-  <si>
-    <t>13802250909</t>
-  </si>
-  <si>
-    <t>13602630950</t>
-  </si>
-  <si>
-    <t>13714605088</t>
-  </si>
-  <si>
-    <t>13510084478</t>
-  </si>
-  <si>
-    <t>13434763605</t>
-  </si>
-  <si>
-    <t>13823310443</t>
-  </si>
-  <si>
-    <t>15989863743</t>
-  </si>
-  <si>
-    <t>13510207370</t>
-  </si>
-  <si>
-    <t>13717068900</t>
-  </si>
-  <si>
-    <t>13423740781</t>
-  </si>
-  <si>
-    <t>13670008160</t>
-  </si>
-  <si>
-    <t>13714568541</t>
-  </si>
-  <si>
-    <t>13510128561</t>
-  </si>
-  <si>
-    <t>13410649018</t>
-  </si>
-  <si>
-    <t>13189716497</t>
-  </si>
-  <si>
-    <t>13622369757</t>
-  </si>
-  <si>
-    <t>13528755160</t>
-  </si>
-  <si>
-    <t>13534098362</t>
-  </si>
-  <si>
-    <t>13902923109</t>
-  </si>
-  <si>
-    <t>13798463199</t>
-  </si>
-  <si>
-    <t>13530327450</t>
-  </si>
-  <si>
-    <t>13528755760</t>
-  </si>
-  <si>
-    <t>13631637108</t>
-  </si>
-  <si>
-    <t>13128980046</t>
-  </si>
-  <si>
-    <t>13823658513</t>
-  </si>
-  <si>
-    <t>13828867366</t>
-  </si>
-  <si>
-    <t>13713806845</t>
-  </si>
-  <si>
-    <t>13417564462</t>
-  </si>
-  <si>
-    <t>13714979617</t>
-  </si>
-  <si>
-    <t>13602695215</t>
-  </si>
-  <si>
-    <t>13538176724</t>
-  </si>
-  <si>
-    <t>13713723967</t>
-  </si>
-  <si>
-    <t>13823737133</t>
-  </si>
-  <si>
-    <t>13923450237</t>
-  </si>
-  <si>
-    <t>13650237561</t>
-  </si>
-  <si>
-    <t>15818778608</t>
-  </si>
-  <si>
-    <t>13923723110</t>
-  </si>
-  <si>
-    <t>13603029433</t>
-  </si>
-  <si>
-    <t>13310838410</t>
-  </si>
-  <si>
-    <t>13509620023</t>
-  </si>
-  <si>
-    <t>13724323612</t>
-  </si>
-  <si>
-    <t>13723481978</t>
+    <t>13861622771</t>
   </si>
 </sst>
 </file>
@@ -2712,6 +609,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2738,12 +636,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3048,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B893"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3068,4459 +969,3057 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A193"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A194"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A195"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A196"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A197"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A198"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A199"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A200"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A201"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="A202"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A203"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A204"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A205"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A206"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A207"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A208"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="A209"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A210"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A211"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A212"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A213"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A214"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A215"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A216"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A217"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A218"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="A219"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A220"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="A221"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A222"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="A223"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="A224"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A225"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="A226"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="A227"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A228"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A229"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="A230"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A231"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="A232"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A233"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A234"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A235"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A236"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="A237"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A238"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="A239"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="A240"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="A241"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="A242"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="A243"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="A244"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="A245"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A246"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="A247"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A248"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="A249"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A250"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A251"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="A252"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="A253"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A254"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="A255"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A256"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="1" t="s">
-        <v>256</v>
-      </c>
+      <c r="A257"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A258"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="A259"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A260"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="1" t="s">
-        <v>260</v>
-      </c>
+      <c r="A261"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A262"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="A263"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A264"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A265"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="A266"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A267"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="A268"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="A269"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="A270"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="A271"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A272"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="A273"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A274"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="A275"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A276"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="A277"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A278"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="A279"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A280"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="A281"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A282"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="A283"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A284"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
-      </c>
+      <c r="A285"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A286"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A287"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="A288"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A289"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A290"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="1" t="s">
-        <v>290</v>
-      </c>
+      <c r="A291"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A292"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="A293"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="A294"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="A295"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="A296"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="A297"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="A298"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="A299"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="1" t="s">
-        <v>299</v>
-      </c>
+      <c r="A300"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A301"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="A302"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="1" t="s">
-        <v>302</v>
-      </c>
+      <c r="A303"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="A304"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="1" t="s">
-        <v>304</v>
-      </c>
+      <c r="A305"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="1" t="s">
-        <v>305</v>
-      </c>
+      <c r="A306"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A307"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="A308"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A309"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="A310"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="A311"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="1" t="s">
-        <v>311</v>
-      </c>
+      <c r="A312"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="A313"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="1" t="s">
-        <v>313</v>
-      </c>
+      <c r="A314"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A315"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="A316"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="A317"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="A318"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="A319"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="A320"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="1" t="s">
-        <v>320</v>
-      </c>
+      <c r="A321"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="A322"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A323"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="A324"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="A325"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="A326"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="A327"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="1" t="s">
-        <v>327</v>
-      </c>
+      <c r="A328"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="A329"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A330"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="A331"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="A332"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="A333"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="A334"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="A335"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="A336"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="A337"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="A338"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A339"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="1" t="s">
-        <v>339</v>
-      </c>
+      <c r="A340"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="A341"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="A342"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="A343"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="A344"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="A345"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="A346"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="A347"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="1" t="s">
-        <v>347</v>
-      </c>
+      <c r="A348"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="A349"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="A350"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="1" t="s">
-        <v>350</v>
-      </c>
+      <c r="A351"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="A352"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="1" t="s">
-        <v>352</v>
-      </c>
+      <c r="A353"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="A354"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="1" t="s">
-        <v>354</v>
-      </c>
+      <c r="A355"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="A356"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="A357"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="1" t="s">
-        <v>357</v>
-      </c>
+      <c r="A358"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="A359"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="A360"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="A361"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="1" t="s">
-        <v>361</v>
-      </c>
+      <c r="A362"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A363"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="1" t="s">
-        <v>363</v>
-      </c>
+      <c r="A364"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="A365"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="1" t="s">
-        <v>365</v>
-      </c>
+      <c r="A366"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="1" t="s">
-        <v>366</v>
-      </c>
+      <c r="A367"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="A368"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A369"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="A370"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="1" t="s">
-        <v>370</v>
-      </c>
+      <c r="A371"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="A372"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="A373"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="A374"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="1" t="s">
-        <v>374</v>
-      </c>
+      <c r="A375"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="A376"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="1" t="s">
-        <v>376</v>
-      </c>
+      <c r="A377"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="1" t="s">
-        <v>377</v>
-      </c>
+      <c r="A378"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="A379"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="1" t="s">
-        <v>379</v>
-      </c>
+      <c r="A380"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="A381"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="A382"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="A383"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="1" t="s">
-        <v>383</v>
-      </c>
+      <c r="A384"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="A385"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="1" t="s">
-        <v>385</v>
-      </c>
+      <c r="A386"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="A387"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="1" t="s">
-        <v>387</v>
-      </c>
+      <c r="A388"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="1" t="s">
-        <v>388</v>
-      </c>
+      <c r="A389"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="A390"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="1" t="s">
-        <v>390</v>
-      </c>
+      <c r="A391"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="A392"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="A393"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="A394"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="A395"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="A396"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="A397"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="A398"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A399"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="A400"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A401"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="1" t="s">
-        <v>401</v>
-      </c>
+      <c r="A402"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A403"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="1" t="s">
-        <v>403</v>
-      </c>
+      <c r="A404"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="A405"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="A406"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="A407"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="A408"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="1" t="s">
-        <v>408</v>
-      </c>
+      <c r="A409"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="1" t="s">
-        <v>409</v>
-      </c>
+      <c r="A410"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="A411"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="A412"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="1" t="s">
-        <v>412</v>
-      </c>
+      <c r="A413"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="A414"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="1" t="s">
-        <v>414</v>
-      </c>
+      <c r="A415"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="1" t="s">
-        <v>415</v>
-      </c>
+      <c r="A416"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="1" t="s">
-        <v>416</v>
-      </c>
+      <c r="A417"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A418"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="A419"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="A420"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A421"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A422"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="A423"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="A424"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="A425"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A426"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="1" t="s">
-        <v>426</v>
-      </c>
+      <c r="A427"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A428"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="1" t="s">
-        <v>428</v>
-      </c>
+      <c r="A429"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="A430"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A431"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="1" t="s">
-        <v>431</v>
-      </c>
+      <c r="A432"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="A433"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="A434"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="A435"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="1" t="s">
-        <v>435</v>
-      </c>
+      <c r="A436"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="1" t="s">
-        <v>436</v>
-      </c>
+      <c r="A437"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="1" t="s">
-        <v>437</v>
-      </c>
+      <c r="A438"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="A439"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="1" t="s">
-        <v>439</v>
-      </c>
+      <c r="A440"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A441"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="A442"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="A443"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="1" t="s">
-        <v>443</v>
-      </c>
+      <c r="A444"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="A445"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A446"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="1" t="s">
-        <v>446</v>
-      </c>
+      <c r="A447"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="A448"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="A449"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="A450"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="1" t="s">
-        <v>450</v>
-      </c>
+      <c r="A451"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="A452"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="1" t="s">
-        <v>452</v>
-      </c>
+      <c r="A453"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="A454"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="1" t="s">
-        <v>454</v>
-      </c>
+      <c r="A455"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="1" t="s">
-        <v>455</v>
-      </c>
+      <c r="A456"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="1" t="s">
-        <v>456</v>
-      </c>
+      <c r="A457"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="A458"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="1" t="s">
-        <v>458</v>
-      </c>
+      <c r="A459"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="1" t="s">
-        <v>459</v>
-      </c>
+      <c r="A460"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="1" t="s">
-        <v>460</v>
-      </c>
+      <c r="A461"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="1" t="s">
-        <v>461</v>
-      </c>
+      <c r="A462"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="1" t="s">
-        <v>462</v>
-      </c>
+      <c r="A463"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="A464"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="A465"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="1" t="s">
-        <v>465</v>
-      </c>
+      <c r="A466"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="A467"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="1" t="s">
-        <v>467</v>
-      </c>
+      <c r="A468"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="A469"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="1" t="s">
-        <v>469</v>
-      </c>
+      <c r="A470"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="1" t="s">
-        <v>470</v>
-      </c>
+      <c r="A471"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="A472"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="1" t="s">
-        <v>472</v>
-      </c>
+      <c r="A473"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="A474"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="A475"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="A476"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="1" t="s">
-        <v>476</v>
-      </c>
+      <c r="A477"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="1" t="s">
-        <v>477</v>
-      </c>
+      <c r="A478"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="1" t="s">
-        <v>478</v>
-      </c>
+      <c r="A479"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="A480"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="1" t="s">
-        <v>480</v>
-      </c>
+      <c r="A481"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="1" t="s">
-        <v>481</v>
-      </c>
+      <c r="A482"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="1" t="s">
-        <v>482</v>
-      </c>
+      <c r="A483"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="1" t="s">
-        <v>483</v>
-      </c>
+      <c r="A484"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="A485"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="1" t="s">
-        <v>485</v>
-      </c>
+      <c r="A486"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="A487"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="1" t="s">
-        <v>487</v>
-      </c>
+      <c r="A488"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="A489"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="1" t="s">
-        <v>489</v>
-      </c>
+      <c r="A490"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A491"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="1" t="s">
-        <v>491</v>
-      </c>
+      <c r="A492"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="1" t="s">
-        <v>492</v>
-      </c>
+      <c r="A493"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="A494"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="1" t="s">
-        <v>494</v>
-      </c>
+      <c r="A495"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="1" t="s">
-        <v>495</v>
-      </c>
+      <c r="A496"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="1" t="s">
-        <v>496</v>
-      </c>
+      <c r="A497"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="1" t="s">
-        <v>497</v>
-      </c>
+      <c r="A498"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="1" t="s">
-        <v>498</v>
-      </c>
+      <c r="A499"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="1" t="s">
-        <v>499</v>
-      </c>
+      <c r="A500"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="1" t="s">
-        <v>500</v>
-      </c>
+      <c r="A501"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="1" t="s">
-        <v>501</v>
-      </c>
+      <c r="A502"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="1" t="s">
-        <v>502</v>
-      </c>
+      <c r="A503"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="1" t="s">
-        <v>503</v>
-      </c>
+      <c r="A504"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="A505"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="A506"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="A507"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="1" t="s">
-        <v>507</v>
-      </c>
+      <c r="A508"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="A509"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="1" t="s">
-        <v>509</v>
-      </c>
+      <c r="A510"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="A511"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="1" t="s">
-        <v>511</v>
-      </c>
+      <c r="A512"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="1" t="s">
-        <v>512</v>
-      </c>
+      <c r="A513"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="A514"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="1" t="s">
-        <v>514</v>
-      </c>
+      <c r="A515"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="1" t="s">
-        <v>515</v>
-      </c>
+      <c r="A516"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="A517"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="1" t="s">
-        <v>517</v>
-      </c>
+      <c r="A518"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="A519"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="1" t="s">
-        <v>519</v>
-      </c>
+      <c r="A520"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="1" t="s">
-        <v>520</v>
-      </c>
+      <c r="A521"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="A522"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="1" t="s">
-        <v>522</v>
-      </c>
+      <c r="A523"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="1" t="s">
-        <v>523</v>
-      </c>
+      <c r="A524"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="A525"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="A526"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="1" t="s">
-        <v>526</v>
-      </c>
+      <c r="A527"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="1" t="s">
-        <v>527</v>
-      </c>
+      <c r="A528"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="1" t="s">
-        <v>528</v>
-      </c>
+      <c r="A529"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="A530"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="A531"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="A532"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="1" t="s">
-        <v>532</v>
-      </c>
+      <c r="A533"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="A534"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="1" t="s">
-        <v>534</v>
-      </c>
+      <c r="A535"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="A536"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="1" t="s">
-        <v>536</v>
-      </c>
+      <c r="A537"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="1" t="s">
-        <v>537</v>
-      </c>
+      <c r="A538"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="1" t="s">
-        <v>538</v>
-      </c>
+      <c r="A539"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="A540"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="A541"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="A542"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="1" t="s">
-        <v>542</v>
-      </c>
+      <c r="A543"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="1" t="s">
-        <v>543</v>
-      </c>
+      <c r="A544"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="1" t="s">
-        <v>544</v>
-      </c>
+      <c r="A545"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="1" t="s">
-        <v>545</v>
-      </c>
+      <c r="A546"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="A547"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="1" t="s">
-        <v>547</v>
-      </c>
+      <c r="A548"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="1" t="s">
-        <v>548</v>
-      </c>
+      <c r="A549"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="A550"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="1" t="s">
-        <v>550</v>
-      </c>
+      <c r="A551"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="1" t="s">
-        <v>551</v>
-      </c>
+      <c r="A552"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="1" t="s">
-        <v>552</v>
-      </c>
+      <c r="A553"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="1" t="s">
-        <v>553</v>
-      </c>
+      <c r="A554"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="1" t="s">
-        <v>554</v>
-      </c>
+      <c r="A555"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="1" t="s">
-        <v>555</v>
-      </c>
+      <c r="A556"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="A557"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="1" t="s">
-        <v>557</v>
-      </c>
+      <c r="A558"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="1" t="s">
-        <v>558</v>
-      </c>
+      <c r="A559"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="1" t="s">
-        <v>559</v>
-      </c>
+      <c r="A560"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="1" t="s">
-        <v>560</v>
-      </c>
+      <c r="A561"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="A562"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="A563"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="1" t="s">
-        <v>563</v>
-      </c>
+      <c r="A564"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="1" t="s">
-        <v>564</v>
-      </c>
+      <c r="A565"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="1" t="s">
-        <v>565</v>
-      </c>
+      <c r="A566"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="1" t="s">
-        <v>566</v>
-      </c>
+      <c r="A567"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="1" t="s">
-        <v>567</v>
-      </c>
+      <c r="A568"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="1" t="s">
-        <v>568</v>
-      </c>
+      <c r="A569"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="1" t="s">
-        <v>569</v>
-      </c>
+      <c r="A570"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="1" t="s">
-        <v>570</v>
-      </c>
+      <c r="A571"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="1" t="s">
-        <v>571</v>
-      </c>
+      <c r="A572"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="A573"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="A574"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="A575"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="1" t="s">
-        <v>575</v>
-      </c>
+      <c r="A576"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="A577"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="A578"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="1" t="s">
-        <v>578</v>
-      </c>
+      <c r="A579"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="A580"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="A581"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="1" t="s">
-        <v>581</v>
-      </c>
+      <c r="A582"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="1" t="s">
-        <v>582</v>
-      </c>
+      <c r="A583"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="1" t="s">
-        <v>583</v>
-      </c>
+      <c r="A584"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="1" t="s">
-        <v>584</v>
-      </c>
+      <c r="A585"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="1" t="s">
-        <v>585</v>
-      </c>
+      <c r="A586"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="1" t="s">
-        <v>586</v>
-      </c>
+      <c r="A587"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="1" t="s">
-        <v>587</v>
-      </c>
+      <c r="A588"/>
     </row>
     <row r="589" spans="1:1">
-      <c r="A589" s="1" t="s">
-        <v>588</v>
-      </c>
+      <c r="A589"/>
     </row>
     <row r="590" spans="1:1">
-      <c r="A590" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="A590"/>
     </row>
     <row r="591" spans="1:1">
-      <c r="A591" s="1" t="s">
-        <v>590</v>
-      </c>
+      <c r="A591"/>
     </row>
     <row r="592" spans="1:1">
-      <c r="A592" s="1" t="s">
-        <v>591</v>
-      </c>
+      <c r="A592"/>
     </row>
     <row r="593" spans="1:1">
-      <c r="A593" s="1" t="s">
-        <v>592</v>
-      </c>
+      <c r="A593"/>
     </row>
     <row r="594" spans="1:1">
-      <c r="A594" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="A594"/>
     </row>
     <row r="595" spans="1:1">
-      <c r="A595" s="1" t="s">
-        <v>594</v>
-      </c>
+      <c r="A595"/>
     </row>
     <row r="596" spans="1:1">
-      <c r="A596" s="1" t="s">
-        <v>595</v>
-      </c>
+      <c r="A596"/>
     </row>
     <row r="597" spans="1:1">
-      <c r="A597" s="1" t="s">
-        <v>596</v>
-      </c>
+      <c r="A597"/>
     </row>
     <row r="598" spans="1:1">
-      <c r="A598" s="1" t="s">
-        <v>597</v>
-      </c>
+      <c r="A598"/>
     </row>
     <row r="599" spans="1:1">
-      <c r="A599" s="1" t="s">
-        <v>598</v>
-      </c>
+      <c r="A599"/>
     </row>
     <row r="600" spans="1:1">
-      <c r="A600" s="1" t="s">
-        <v>599</v>
-      </c>
+      <c r="A600"/>
     </row>
     <row r="601" spans="1:1">
-      <c r="A601" s="1" t="s">
-        <v>600</v>
-      </c>
+      <c r="A601"/>
     </row>
     <row r="602" spans="1:1">
-      <c r="A602" s="1" t="s">
-        <v>601</v>
-      </c>
+      <c r="A602"/>
     </row>
     <row r="603" spans="1:1">
-      <c r="A603" s="1" t="s">
-        <v>602</v>
-      </c>
+      <c r="A603"/>
     </row>
     <row r="604" spans="1:1">
-      <c r="A604" s="1" t="s">
-        <v>603</v>
-      </c>
+      <c r="A604"/>
     </row>
     <row r="605" spans="1:1">
-      <c r="A605" s="1" t="s">
-        <v>604</v>
-      </c>
+      <c r="A605"/>
     </row>
     <row r="606" spans="1:1">
-      <c r="A606" s="1" t="s">
-        <v>605</v>
-      </c>
+      <c r="A606"/>
     </row>
     <row r="607" spans="1:1">
-      <c r="A607" s="1" t="s">
-        <v>606</v>
-      </c>
+      <c r="A607"/>
     </row>
     <row r="608" spans="1:1">
-      <c r="A608" s="1" t="s">
-        <v>607</v>
-      </c>
+      <c r="A608"/>
     </row>
     <row r="609" spans="1:1">
-      <c r="A609" s="1" t="s">
-        <v>608</v>
-      </c>
+      <c r="A609"/>
     </row>
     <row r="610" spans="1:1">
-      <c r="A610" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="A610"/>
     </row>
     <row r="611" spans="1:1">
-      <c r="A611" s="1" t="s">
-        <v>610</v>
-      </c>
+      <c r="A611"/>
     </row>
     <row r="612" spans="1:1">
-      <c r="A612" s="1" t="s">
-        <v>611</v>
-      </c>
+      <c r="A612"/>
     </row>
     <row r="613" spans="1:1">
-      <c r="A613" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="A613"/>
     </row>
     <row r="614" spans="1:1">
-      <c r="A614" s="1" t="s">
-        <v>613</v>
-      </c>
+      <c r="A614"/>
     </row>
     <row r="615" spans="1:1">
-      <c r="A615" s="1" t="s">
-        <v>614</v>
-      </c>
+      <c r="A615"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="1" t="s">
-        <v>615</v>
-      </c>
+      <c r="A616"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="1" t="s">
-        <v>616</v>
-      </c>
+      <c r="A617"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="1" t="s">
-        <v>617</v>
-      </c>
+      <c r="A618"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="1" t="s">
-        <v>618</v>
-      </c>
+      <c r="A619"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="1" t="s">
-        <v>619</v>
-      </c>
+      <c r="A620"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="1" t="s">
-        <v>620</v>
-      </c>
+      <c r="A621"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="1" t="s">
-        <v>621</v>
-      </c>
+      <c r="A622"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="A623"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="1" t="s">
-        <v>623</v>
-      </c>
+      <c r="A624"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="1" t="s">
-        <v>624</v>
-      </c>
+      <c r="A625"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="A626"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="1" t="s">
-        <v>626</v>
-      </c>
+      <c r="A627"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="1" t="s">
-        <v>627</v>
-      </c>
+      <c r="A628"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="1" t="s">
-        <v>628</v>
-      </c>
+      <c r="A629"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="1" t="s">
-        <v>629</v>
-      </c>
+      <c r="A630"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="1" t="s">
-        <v>630</v>
-      </c>
+      <c r="A631"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="1" t="s">
-        <v>631</v>
-      </c>
+      <c r="A632"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="1" t="s">
-        <v>632</v>
-      </c>
+      <c r="A633"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="1" t="s">
-        <v>633</v>
-      </c>
+      <c r="A634"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="1" t="s">
-        <v>634</v>
-      </c>
+      <c r="A635"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="1" t="s">
-        <v>635</v>
-      </c>
+      <c r="A636"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A637"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="A638"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="1" t="s">
-        <v>638</v>
-      </c>
+      <c r="A639"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="1" t="s">
-        <v>639</v>
-      </c>
+      <c r="A640"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="1" t="s">
-        <v>640</v>
-      </c>
+      <c r="A641"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="1" t="s">
-        <v>641</v>
-      </c>
+      <c r="A642"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="1" t="s">
-        <v>642</v>
-      </c>
+      <c r="A643"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="1" t="s">
-        <v>643</v>
-      </c>
+      <c r="A644"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="1" t="s">
-        <v>644</v>
-      </c>
+      <c r="A645"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="1" t="s">
-        <v>645</v>
-      </c>
+      <c r="A646"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="1" t="s">
-        <v>646</v>
-      </c>
+      <c r="A647"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="1" t="s">
-        <v>647</v>
-      </c>
+      <c r="A648"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="1" t="s">
-        <v>648</v>
-      </c>
+      <c r="A649"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="1" t="s">
-        <v>649</v>
-      </c>
+      <c r="A650"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="1" t="s">
-        <v>650</v>
-      </c>
+      <c r="A651"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="A652"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="1" t="s">
-        <v>652</v>
-      </c>
+      <c r="A653"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="1" t="s">
-        <v>653</v>
-      </c>
+      <c r="A654"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="1" t="s">
-        <v>654</v>
-      </c>
+      <c r="A655"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="1" t="s">
-        <v>655</v>
-      </c>
+      <c r="A656"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="1" t="s">
-        <v>656</v>
-      </c>
+      <c r="A657"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="1" t="s">
-        <v>657</v>
-      </c>
+      <c r="A658"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="1" t="s">
-        <v>658</v>
-      </c>
+      <c r="A659"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="1" t="s">
-        <v>659</v>
-      </c>
+      <c r="A660"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="1" t="s">
-        <v>660</v>
-      </c>
+      <c r="A661"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="1" t="s">
-        <v>661</v>
-      </c>
+      <c r="A662"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="1" t="s">
-        <v>662</v>
-      </c>
+      <c r="A663"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="1" t="s">
-        <v>663</v>
-      </c>
+      <c r="A664"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="1" t="s">
-        <v>664</v>
-      </c>
+      <c r="A665"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="1" t="s">
-        <v>665</v>
-      </c>
+      <c r="A666"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="1" t="s">
-        <v>666</v>
-      </c>
+      <c r="A667"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="1" t="s">
-        <v>667</v>
-      </c>
+      <c r="A668"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="1" t="s">
-        <v>668</v>
-      </c>
+      <c r="A669"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="1" t="s">
-        <v>669</v>
-      </c>
+      <c r="A670"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="1" t="s">
-        <v>670</v>
-      </c>
+      <c r="A671"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="1" t="s">
-        <v>671</v>
-      </c>
+      <c r="A672"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="1" t="s">
-        <v>672</v>
-      </c>
+      <c r="A673"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="1" t="s">
-        <v>673</v>
-      </c>
+      <c r="A674"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="1" t="s">
-        <v>674</v>
-      </c>
+      <c r="A675"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="1" t="s">
-        <v>675</v>
-      </c>
+      <c r="A676"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="1" t="s">
-        <v>676</v>
-      </c>
+      <c r="A677"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="A678"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="1" t="s">
-        <v>678</v>
-      </c>
+      <c r="A679"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="1" t="s">
-        <v>679</v>
-      </c>
+      <c r="A680"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="1" t="s">
-        <v>680</v>
-      </c>
+      <c r="A681"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="1" t="s">
-        <v>681</v>
-      </c>
+      <c r="A682"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="1" t="s">
-        <v>682</v>
-      </c>
+      <c r="A683"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="A684"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="1" t="s">
-        <v>684</v>
-      </c>
+      <c r="A685"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="1" t="s">
-        <v>685</v>
-      </c>
+      <c r="A686"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="1" t="s">
-        <v>686</v>
-      </c>
+      <c r="A687"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="1" t="s">
-        <v>687</v>
-      </c>
+      <c r="A688"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="A689"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="A690"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="1" t="s">
-        <v>690</v>
-      </c>
+      <c r="A691"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="A692"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="1" t="s">
-        <v>692</v>
-      </c>
+      <c r="A693"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="1" t="s">
-        <v>693</v>
-      </c>
+      <c r="A694"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="1" t="s">
-        <v>694</v>
-      </c>
+      <c r="A695"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="A696"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="1" t="s">
-        <v>696</v>
-      </c>
+      <c r="A697"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="1" t="s">
-        <v>697</v>
-      </c>
+      <c r="A698"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="1" t="s">
-        <v>698</v>
-      </c>
+      <c r="A699"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="1" t="s">
-        <v>699</v>
-      </c>
+      <c r="A700"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="1" t="s">
-        <v>700</v>
-      </c>
+      <c r="A701"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="A702"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="1" t="s">
-        <v>702</v>
-      </c>
+      <c r="A703"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="1" t="s">
-        <v>703</v>
-      </c>
+      <c r="A704"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="1" t="s">
-        <v>704</v>
-      </c>
+      <c r="A705"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="1" t="s">
-        <v>705</v>
-      </c>
+      <c r="A706"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="1" t="s">
-        <v>706</v>
-      </c>
+      <c r="A707"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="1" t="s">
-        <v>707</v>
-      </c>
+      <c r="A708"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="1" t="s">
-        <v>708</v>
-      </c>
+      <c r="A709"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="1" t="s">
-        <v>709</v>
-      </c>
+      <c r="A710"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="1" t="s">
-        <v>710</v>
-      </c>
+      <c r="A711"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="1" t="s">
-        <v>711</v>
-      </c>
+      <c r="A712"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="1" t="s">
-        <v>712</v>
-      </c>
+      <c r="A713"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="A714"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="1" t="s">
-        <v>714</v>
-      </c>
+      <c r="A715"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="1" t="s">
-        <v>715</v>
-      </c>
+      <c r="A716"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="1" t="s">
-        <v>716</v>
-      </c>
+      <c r="A717"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="1" t="s">
-        <v>717</v>
-      </c>
+      <c r="A718"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="1" t="s">
-        <v>718</v>
-      </c>
+      <c r="A719"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="1" t="s">
-        <v>719</v>
-      </c>
+      <c r="A720"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="A721"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="1" t="s">
-        <v>721</v>
-      </c>
+      <c r="A722"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="1" t="s">
-        <v>722</v>
-      </c>
+      <c r="A723"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="1" t="s">
-        <v>723</v>
-      </c>
+      <c r="A724"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="1" t="s">
-        <v>724</v>
-      </c>
+      <c r="A725"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="1" t="s">
-        <v>725</v>
-      </c>
+      <c r="A726"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="1" t="s">
-        <v>726</v>
-      </c>
+      <c r="A727"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="1" t="s">
-        <v>727</v>
-      </c>
+      <c r="A728"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="1" t="s">
-        <v>728</v>
-      </c>
+      <c r="A729"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="A730"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="1" t="s">
-        <v>730</v>
-      </c>
+      <c r="A731"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="A732"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="1" t="s">
-        <v>732</v>
-      </c>
+      <c r="A733"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="A734"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="1" t="s">
-        <v>734</v>
-      </c>
+      <c r="A735"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="A736"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="1" t="s">
-        <v>736</v>
-      </c>
+      <c r="A737"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="A738"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="1" t="s">
-        <v>738</v>
-      </c>
+      <c r="A739"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="1" t="s">
-        <v>739</v>
-      </c>
+      <c r="A740"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="A741"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="A742"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="1" t="s">
-        <v>742</v>
-      </c>
+      <c r="A743"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="1" t="s">
-        <v>743</v>
-      </c>
+      <c r="A744"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="A745"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="1" t="s">
-        <v>745</v>
-      </c>
+      <c r="A746"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="1" t="s">
-        <v>746</v>
-      </c>
+      <c r="A747"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="1" t="s">
-        <v>747</v>
-      </c>
+      <c r="A748"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="1" t="s">
-        <v>748</v>
-      </c>
+      <c r="A749"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="1" t="s">
-        <v>749</v>
-      </c>
+      <c r="A750"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="1" t="s">
-        <v>750</v>
-      </c>
+      <c r="A751"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="1" t="s">
-        <v>751</v>
-      </c>
+      <c r="A752"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="1" t="s">
-        <v>752</v>
-      </c>
+      <c r="A753"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="A754"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="1" t="s">
-        <v>754</v>
-      </c>
+      <c r="A755"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="A756"/>
     </row>
     <row r="757" spans="1:1">
-      <c r="A757" s="1" t="s">
-        <v>756</v>
-      </c>
+      <c r="A757"/>
     </row>
     <row r="758" spans="1:1">
-      <c r="A758" s="1" t="s">
-        <v>757</v>
-      </c>
+      <c r="A758"/>
     </row>
     <row r="759" spans="1:1">
-      <c r="A759" s="1" t="s">
-        <v>758</v>
-      </c>
+      <c r="A759"/>
     </row>
     <row r="760" spans="1:1">
-      <c r="A760" s="1" t="s">
-        <v>759</v>
-      </c>
+      <c r="A760"/>
     </row>
     <row r="761" spans="1:1">
-      <c r="A761" s="1" t="s">
-        <v>760</v>
-      </c>
+      <c r="A761"/>
     </row>
     <row r="762" spans="1:1">
-      <c r="A762" s="1" t="s">
-        <v>761</v>
-      </c>
+      <c r="A762"/>
     </row>
     <row r="763" spans="1:1">
-      <c r="A763" s="1" t="s">
-        <v>762</v>
-      </c>
+      <c r="A763"/>
     </row>
     <row r="764" spans="1:1">
-      <c r="A764" s="1" t="s">
-        <v>763</v>
-      </c>
+      <c r="A764"/>
     </row>
     <row r="765" spans="1:1">
-      <c r="A765" s="1" t="s">
-        <v>764</v>
-      </c>
+      <c r="A765"/>
     </row>
     <row r="766" spans="1:1">
-      <c r="A766" s="1" t="s">
-        <v>765</v>
-      </c>
+      <c r="A766"/>
     </row>
     <row r="767" spans="1:1">
-      <c r="A767" s="1" t="s">
-        <v>766</v>
-      </c>
+      <c r="A767"/>
     </row>
     <row r="768" spans="1:1">
-      <c r="A768" s="1" t="s">
-        <v>767</v>
-      </c>
+      <c r="A768"/>
     </row>
     <row r="769" spans="1:1">
-      <c r="A769" s="1" t="s">
-        <v>768</v>
-      </c>
+      <c r="A769"/>
     </row>
     <row r="770" spans="1:1">
-      <c r="A770" s="1" t="s">
-        <v>769</v>
-      </c>
+      <c r="A770"/>
     </row>
     <row r="771" spans="1:1">
-      <c r="A771" s="1" t="s">
-        <v>770</v>
-      </c>
+      <c r="A771"/>
     </row>
     <row r="772" spans="1:1">
-      <c r="A772" s="1" t="s">
-        <v>771</v>
-      </c>
+      <c r="A772"/>
     </row>
     <row r="773" spans="1:1">
-      <c r="A773" s="1" t="s">
-        <v>772</v>
-      </c>
+      <c r="A773"/>
     </row>
     <row r="774" spans="1:1">
-      <c r="A774" s="1" t="s">
-        <v>773</v>
-      </c>
+      <c r="A774"/>
     </row>
     <row r="775" spans="1:1">
-      <c r="A775" s="1" t="s">
-        <v>774</v>
-      </c>
+      <c r="A775"/>
     </row>
     <row r="776" spans="1:1">
-      <c r="A776" s="1" t="s">
-        <v>775</v>
-      </c>
+      <c r="A776"/>
     </row>
     <row r="777" spans="1:1">
-      <c r="A777" s="1" t="s">
-        <v>776</v>
-      </c>
+      <c r="A777"/>
     </row>
     <row r="778" spans="1:1">
-      <c r="A778" s="1" t="s">
-        <v>777</v>
-      </c>
+      <c r="A778"/>
     </row>
     <row r="779" spans="1:1">
-      <c r="A779" s="1" t="s">
-        <v>778</v>
-      </c>
+      <c r="A779"/>
     </row>
     <row r="780" spans="1:1">
-      <c r="A780" s="1" t="s">
-        <v>779</v>
-      </c>
+      <c r="A780"/>
     </row>
     <row r="781" spans="1:1">
-      <c r="A781" s="1" t="s">
-        <v>780</v>
-      </c>
+      <c r="A781"/>
     </row>
     <row r="782" spans="1:1">
-      <c r="A782" s="1" t="s">
-        <v>781</v>
-      </c>
+      <c r="A782"/>
     </row>
     <row r="783" spans="1:1">
-      <c r="A783" s="1" t="s">
-        <v>782</v>
-      </c>
+      <c r="A783"/>
     </row>
     <row r="784" spans="1:1">
-      <c r="A784" s="1" t="s">
-        <v>783</v>
-      </c>
+      <c r="A784"/>
     </row>
     <row r="785" spans="1:1">
-      <c r="A785" s="1" t="s">
-        <v>784</v>
-      </c>
+      <c r="A785"/>
     </row>
     <row r="786" spans="1:1">
-      <c r="A786" s="1" t="s">
-        <v>785</v>
-      </c>
+      <c r="A786"/>
     </row>
     <row r="787" spans="1:1">
-      <c r="A787" s="1" t="s">
-        <v>786</v>
-      </c>
+      <c r="A787"/>
     </row>
     <row r="788" spans="1:1">
-      <c r="A788" s="1" t="s">
-        <v>787</v>
-      </c>
+      <c r="A788"/>
     </row>
     <row r="789" spans="1:1">
-      <c r="A789" s="1" t="s">
-        <v>788</v>
-      </c>
+      <c r="A789"/>
     </row>
     <row r="790" spans="1:1">
-      <c r="A790" s="1" t="s">
-        <v>789</v>
-      </c>
+      <c r="A790"/>
     </row>
     <row r="791" spans="1:1">
-      <c r="A791" s="1" t="s">
-        <v>790</v>
-      </c>
+      <c r="A791"/>
     </row>
     <row r="792" spans="1:1">
-      <c r="A792" s="1" t="s">
-        <v>791</v>
-      </c>
+      <c r="A792"/>
     </row>
     <row r="793" spans="1:1">
-      <c r="A793" s="1" t="s">
-        <v>792</v>
-      </c>
+      <c r="A793"/>
     </row>
     <row r="794" spans="1:1">
-      <c r="A794" s="1" t="s">
-        <v>793</v>
-      </c>
+      <c r="A794"/>
     </row>
     <row r="795" spans="1:1">
-      <c r="A795" s="1" t="s">
-        <v>794</v>
-      </c>
+      <c r="A795"/>
     </row>
     <row r="796" spans="1:1">
-      <c r="A796" s="1" t="s">
-        <v>795</v>
-      </c>
+      <c r="A796"/>
     </row>
     <row r="797" spans="1:1">
-      <c r="A797" s="1" t="s">
-        <v>796</v>
-      </c>
+      <c r="A797"/>
     </row>
     <row r="798" spans="1:1">
-      <c r="A798" s="1" t="s">
-        <v>797</v>
-      </c>
+      <c r="A798"/>
     </row>
     <row r="799" spans="1:1">
-      <c r="A799" s="1" t="s">
-        <v>798</v>
-      </c>
+      <c r="A799"/>
     </row>
     <row r="800" spans="1:1">
-      <c r="A800" s="1" t="s">
-        <v>799</v>
-      </c>
+      <c r="A800"/>
     </row>
     <row r="801" spans="1:1">
-      <c r="A801" s="1" t="s">
-        <v>800</v>
-      </c>
+      <c r="A801"/>
     </row>
     <row r="802" spans="1:1">
-      <c r="A802" s="1" t="s">
-        <v>801</v>
-      </c>
+      <c r="A802"/>
     </row>
     <row r="803" spans="1:1">
-      <c r="A803" s="1" t="s">
-        <v>802</v>
-      </c>
+      <c r="A803"/>
     </row>
     <row r="804" spans="1:1">
-      <c r="A804" s="1" t="s">
-        <v>803</v>
-      </c>
+      <c r="A804"/>
     </row>
     <row r="805" spans="1:1">
-      <c r="A805" s="1" t="s">
-        <v>804</v>
-      </c>
+      <c r="A805"/>
     </row>
     <row r="806" spans="1:1">
-      <c r="A806" s="1" t="s">
-        <v>805</v>
-      </c>
+      <c r="A806"/>
     </row>
     <row r="807" spans="1:1">
-      <c r="A807" s="1" t="s">
-        <v>806</v>
-      </c>
+      <c r="A807"/>
     </row>
     <row r="808" spans="1:1">
-      <c r="A808" s="1" t="s">
-        <v>807</v>
-      </c>
+      <c r="A808"/>
     </row>
     <row r="809" spans="1:1">
-      <c r="A809" s="1" t="s">
-        <v>808</v>
-      </c>
+      <c r="A809"/>
     </row>
     <row r="810" spans="1:1">
-      <c r="A810" s="1" t="s">
-        <v>809</v>
-      </c>
+      <c r="A810"/>
     </row>
     <row r="811" spans="1:1">
-      <c r="A811" s="1" t="s">
-        <v>810</v>
-      </c>
+      <c r="A811"/>
     </row>
     <row r="812" spans="1:1">
-      <c r="A812" s="1" t="s">
-        <v>811</v>
-      </c>
+      <c r="A812"/>
     </row>
     <row r="813" spans="1:1">
-      <c r="A813" s="1" t="s">
-        <v>812</v>
-      </c>
+      <c r="A813"/>
     </row>
     <row r="814" spans="1:1">
-      <c r="A814" s="1" t="s">
-        <v>813</v>
-      </c>
+      <c r="A814"/>
     </row>
     <row r="815" spans="1:1">
-      <c r="A815" s="1" t="s">
-        <v>814</v>
-      </c>
+      <c r="A815"/>
     </row>
     <row r="816" spans="1:1">
-      <c r="A816" s="1" t="s">
-        <v>815</v>
-      </c>
+      <c r="A816"/>
     </row>
     <row r="817" spans="1:1">
-      <c r="A817" s="1" t="s">
-        <v>816</v>
-      </c>
+      <c r="A817"/>
     </row>
     <row r="818" spans="1:1">
-      <c r="A818" s="1" t="s">
-        <v>817</v>
-      </c>
+      <c r="A818"/>
     </row>
     <row r="819" spans="1:1">
-      <c r="A819" s="1" t="s">
-        <v>818</v>
-      </c>
+      <c r="A819"/>
     </row>
     <row r="820" spans="1:1">
-      <c r="A820" s="1" t="s">
-        <v>819</v>
-      </c>
+      <c r="A820"/>
     </row>
     <row r="821" spans="1:1">
-      <c r="A821" s="1" t="s">
-        <v>820</v>
-      </c>
+      <c r="A821"/>
     </row>
     <row r="822" spans="1:1">
-      <c r="A822" s="1" t="s">
-        <v>821</v>
-      </c>
+      <c r="A822"/>
     </row>
     <row r="823" spans="1:1">
-      <c r="A823" s="1" t="s">
-        <v>822</v>
-      </c>
+      <c r="A823"/>
     </row>
     <row r="824" spans="1:1">
-      <c r="A824" s="1" t="s">
-        <v>823</v>
-      </c>
+      <c r="A824"/>
     </row>
     <row r="825" spans="1:1">
-      <c r="A825" s="1" t="s">
-        <v>824</v>
-      </c>
+      <c r="A825"/>
     </row>
     <row r="826" spans="1:1">
-      <c r="A826" s="1" t="s">
-        <v>825</v>
-      </c>
+      <c r="A826"/>
     </row>
     <row r="827" spans="1:1">
-      <c r="A827" s="1" t="s">
-        <v>826</v>
-      </c>
+      <c r="A827"/>
     </row>
     <row r="828" spans="1:1">
-      <c r="A828" s="1" t="s">
-        <v>827</v>
-      </c>
+      <c r="A828"/>
     </row>
     <row r="829" spans="1:1">
-      <c r="A829" s="1" t="s">
-        <v>828</v>
-      </c>
+      <c r="A829"/>
     </row>
     <row r="830" spans="1:1">
-      <c r="A830" s="1" t="s">
-        <v>829</v>
-      </c>
+      <c r="A830"/>
     </row>
     <row r="831" spans="1:1">
-      <c r="A831" s="1" t="s">
-        <v>830</v>
-      </c>
+      <c r="A831"/>
     </row>
     <row r="832" spans="1:1">
-      <c r="A832" s="1" t="s">
-        <v>831</v>
-      </c>
+      <c r="A832"/>
     </row>
     <row r="833" spans="1:1">
-      <c r="A833" s="1" t="s">
-        <v>832</v>
-      </c>
+      <c r="A833"/>
     </row>
     <row r="834" spans="1:1">
-      <c r="A834" s="1" t="s">
-        <v>833</v>
-      </c>
+      <c r="A834"/>
     </row>
     <row r="835" spans="1:1">
-      <c r="A835" s="1" t="s">
-        <v>834</v>
-      </c>
+      <c r="A835"/>
     </row>
     <row r="836" spans="1:1">
-      <c r="A836" s="1" t="s">
-        <v>835</v>
-      </c>
+      <c r="A836"/>
     </row>
     <row r="837" spans="1:1">
-      <c r="A837" s="1" t="s">
-        <v>836</v>
-      </c>
+      <c r="A837"/>
     </row>
     <row r="838" spans="1:1">
-      <c r="A838" s="1" t="s">
-        <v>837</v>
-      </c>
+      <c r="A838"/>
     </row>
     <row r="839" spans="1:1">
-      <c r="A839" s="1" t="s">
-        <v>838</v>
-      </c>
+      <c r="A839"/>
     </row>
     <row r="840" spans="1:1">
-      <c r="A840" s="1" t="s">
-        <v>839</v>
-      </c>
+      <c r="A840"/>
     </row>
     <row r="841" spans="1:1">
-      <c r="A841" s="1" t="s">
-        <v>840</v>
-      </c>
+      <c r="A841"/>
     </row>
     <row r="842" spans="1:1">
-      <c r="A842" s="1" t="s">
-        <v>841</v>
-      </c>
+      <c r="A842"/>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="1" t="s">
-        <v>842</v>
-      </c>
+      <c r="A843"/>
     </row>
     <row r="844" spans="1:1">
-      <c r="A844" s="1" t="s">
-        <v>843</v>
-      </c>
+      <c r="A844"/>
     </row>
     <row r="845" spans="1:1">
-      <c r="A845" s="1" t="s">
-        <v>844</v>
-      </c>
+      <c r="A845"/>
     </row>
     <row r="846" spans="1:1">
-      <c r="A846" s="1" t="s">
-        <v>845</v>
-      </c>
+      <c r="A846"/>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="1" t="s">
-        <v>846</v>
-      </c>
+      <c r="A847"/>
     </row>
     <row r="848" spans="1:1">
-      <c r="A848" s="1" t="s">
-        <v>847</v>
-      </c>
+      <c r="A848"/>
     </row>
     <row r="849" spans="1:1">
-      <c r="A849" s="1" t="s">
-        <v>848</v>
-      </c>
+      <c r="A849"/>
     </row>
     <row r="850" spans="1:1">
-      <c r="A850" s="1" t="s">
-        <v>849</v>
-      </c>
+      <c r="A850"/>
     </row>
     <row r="851" spans="1:1">
-      <c r="A851" s="1" t="s">
-        <v>850</v>
-      </c>
+      <c r="A851"/>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="1" t="s">
-        <v>851</v>
-      </c>
+      <c r="A852"/>
     </row>
     <row r="853" spans="1:1">
-      <c r="A853" s="1" t="s">
-        <v>852</v>
-      </c>
+      <c r="A853"/>
     </row>
     <row r="854" spans="1:1">
-      <c r="A854" s="1" t="s">
-        <v>853</v>
-      </c>
+      <c r="A854"/>
     </row>
     <row r="855" spans="1:1">
-      <c r="A855" s="1" t="s">
-        <v>854</v>
-      </c>
+      <c r="A855"/>
     </row>
     <row r="856" spans="1:1">
-      <c r="A856" s="1" t="s">
-        <v>855</v>
-      </c>
+      <c r="A856"/>
     </row>
     <row r="857" spans="1:1">
-      <c r="A857" s="1" t="s">
-        <v>856</v>
-      </c>
+      <c r="A857"/>
     </row>
     <row r="858" spans="1:1">
-      <c r="A858" s="1" t="s">
-        <v>857</v>
-      </c>
+      <c r="A858"/>
     </row>
     <row r="859" spans="1:1">
-      <c r="A859" s="1" t="s">
-        <v>858</v>
-      </c>
+      <c r="A859"/>
     </row>
     <row r="860" spans="1:1">
-      <c r="A860" s="1" t="s">
-        <v>859</v>
-      </c>
+      <c r="A860"/>
     </row>
     <row r="861" spans="1:1">
-      <c r="A861" s="1" t="s">
-        <v>860</v>
-      </c>
+      <c r="A861"/>
     </row>
     <row r="862" spans="1:1">
-      <c r="A862" s="1" t="s">
-        <v>861</v>
-      </c>
+      <c r="A862"/>
     </row>
     <row r="863" spans="1:1">
-      <c r="A863" s="1" t="s">
-        <v>862</v>
-      </c>
+      <c r="A863"/>
     </row>
     <row r="864" spans="1:1">
-      <c r="A864" s="1" t="s">
-        <v>863</v>
-      </c>
+      <c r="A864"/>
     </row>
     <row r="865" spans="1:1">
-      <c r="A865" s="1" t="s">
-        <v>864</v>
-      </c>
+      <c r="A865"/>
     </row>
     <row r="866" spans="1:1">
-      <c r="A866" s="1" t="s">
-        <v>865</v>
-      </c>
+      <c r="A866"/>
     </row>
     <row r="867" spans="1:1">
-      <c r="A867" s="1" t="s">
-        <v>866</v>
-      </c>
+      <c r="A867"/>
     </row>
     <row r="868" spans="1:1">
-      <c r="A868" s="1" t="s">
-        <v>867</v>
-      </c>
+      <c r="A868"/>
     </row>
     <row r="869" spans="1:1">
-      <c r="A869" s="1" t="s">
-        <v>868</v>
-      </c>
+      <c r="A869"/>
     </row>
     <row r="870" spans="1:1">
-      <c r="A870" s="1" t="s">
-        <v>869</v>
-      </c>
+      <c r="A870"/>
     </row>
     <row r="871" spans="1:1">
-      <c r="A871" s="1" t="s">
-        <v>870</v>
-      </c>
+      <c r="A871"/>
     </row>
     <row r="872" spans="1:1">
-      <c r="A872" s="1" t="s">
-        <v>871</v>
-      </c>
+      <c r="A872"/>
     </row>
     <row r="873" spans="1:1">
-      <c r="A873" s="1" t="s">
-        <v>872</v>
-      </c>
+      <c r="A873"/>
     </row>
     <row r="874" spans="1:1">
-      <c r="A874" s="1" t="s">
-        <v>873</v>
-      </c>
+      <c r="A874"/>
     </row>
     <row r="875" spans="1:1">
-      <c r="A875" s="1" t="s">
-        <v>874</v>
-      </c>
+      <c r="A875"/>
     </row>
     <row r="876" spans="1:1">
-      <c r="A876" s="1" t="s">
-        <v>875</v>
-      </c>
+      <c r="A876"/>
     </row>
     <row r="877" spans="1:1">
-      <c r="A877" s="1" t="s">
-        <v>876</v>
-      </c>
+      <c r="A877"/>
     </row>
     <row r="878" spans="1:1">
-      <c r="A878" s="1" t="s">
-        <v>877</v>
-      </c>
+      <c r="A878"/>
     </row>
     <row r="879" spans="1:1">
-      <c r="A879" s="1" t="s">
-        <v>878</v>
-      </c>
+      <c r="A879"/>
     </row>
     <row r="880" spans="1:1">
-      <c r="A880" s="1" t="s">
-        <v>879</v>
-      </c>
+      <c r="A880"/>
     </row>
     <row r="881" spans="1:1">
-      <c r="A881" s="1" t="s">
-        <v>880</v>
-      </c>
+      <c r="A881"/>
     </row>
     <row r="882" spans="1:1">
-      <c r="A882" s="1" t="s">
-        <v>881</v>
-      </c>
+      <c r="A882"/>
     </row>
     <row r="883" spans="1:1">
-      <c r="A883" s="1" t="s">
-        <v>882</v>
-      </c>
+      <c r="A883"/>
     </row>
     <row r="884" spans="1:1">
-      <c r="A884" s="1" t="s">
-        <v>883</v>
-      </c>
+      <c r="A884"/>
     </row>
     <row r="885" spans="1:1">
-      <c r="A885" s="1" t="s">
-        <v>884</v>
-      </c>
+      <c r="A885"/>
     </row>
     <row r="886" spans="1:1">
-      <c r="A886" s="1" t="s">
-        <v>885</v>
-      </c>
+      <c r="A886"/>
     </row>
     <row r="887" spans="1:1">
-      <c r="A887" s="1" t="s">
-        <v>886</v>
-      </c>
+      <c r="A887"/>
     </row>
     <row r="888" spans="1:1">
-      <c r="A888" s="1" t="s">
-        <v>887</v>
-      </c>
+      <c r="A888"/>
     </row>
     <row r="889" spans="1:1">
-      <c r="A889" s="1" t="s">
-        <v>888</v>
-      </c>
+      <c r="A889"/>
     </row>
     <row r="890" spans="1:1">
-      <c r="A890" s="1" t="s">
-        <v>889</v>
-      </c>
+      <c r="A890"/>
     </row>
     <row r="891" spans="1:1">
-      <c r="A891" s="1" t="s">
-        <v>890</v>
-      </c>
+      <c r="A891"/>
     </row>
     <row r="892" spans="1:1">
-      <c r="A892" s="1" t="s">
-        <v>891</v>
-      </c>
+      <c r="A892"/>
     </row>
     <row r="893" spans="1:1">
-      <c r="A893" s="1" t="s">
-        <v>892</v>
-      </c>
+      <c r="A893"/>
     </row>
     <row r="894" spans="1:1">
       <c r="A894"/>
